--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/农村居民消费价格分类指数(上年同期=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/农村居民消费价格分类指数(上年同期=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,2449 +483,2449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.61344312</v>
+        <v>98.54723559999999</v>
       </c>
       <c r="C2" t="n">
-        <v>101.995775199999</v>
+        <v>100.02831135</v>
       </c>
       <c r="D2" t="n">
-        <v>101.8330519</v>
+        <v>101.54166134</v>
       </c>
       <c r="E2" t="n">
-        <v>102.376389</v>
+        <v>102.01671968</v>
       </c>
       <c r="F2" t="n">
-        <v>100.413863699999</v>
+        <v>99.98534906</v>
       </c>
       <c r="G2" t="n">
-        <v>101.754904699999</v>
+        <v>101.60931001</v>
       </c>
       <c r="H2" t="n">
-        <v>100.218853199999</v>
+        <v>100.23559893</v>
       </c>
       <c r="I2" t="n">
-        <v>101.320601999999</v>
+        <v>101.5385975</v>
       </c>
       <c r="J2" t="n">
-        <v>104.2992863</v>
+        <v>103.96062113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.75265192000001</v>
+        <v>98.63153968</v>
       </c>
       <c r="C3" t="n">
-        <v>102.1191161</v>
+        <v>100.19896577</v>
       </c>
       <c r="D3" t="n">
-        <v>101.8503774</v>
+        <v>101.89699138</v>
       </c>
       <c r="E3" t="n">
-        <v>102.4316389</v>
+        <v>101.94937821</v>
       </c>
       <c r="F3" t="n">
-        <v>100.5218848</v>
+        <v>99.96060371999999</v>
       </c>
       <c r="G3" t="n">
-        <v>101.8078225</v>
+        <v>101.50768819</v>
       </c>
       <c r="H3" t="n">
-        <v>100.2224733</v>
+        <v>100.10408723</v>
       </c>
       <c r="I3" t="n">
-        <v>101.3132401</v>
+        <v>101.43193954</v>
       </c>
       <c r="J3" t="n">
-        <v>104.183268</v>
+        <v>105.14866704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.94586173</v>
+        <v>98.30107151</v>
       </c>
       <c r="C4" t="n">
-        <v>102.2355475</v>
+        <v>100.53269098</v>
       </c>
       <c r="D4" t="n">
-        <v>101.8529578</v>
+        <v>102.01412539</v>
       </c>
       <c r="E4" t="n">
-        <v>102.4765229</v>
+        <v>102.02699943</v>
       </c>
       <c r="F4" t="n">
-        <v>100.6226976</v>
+        <v>100.01844894</v>
       </c>
       <c r="G4" t="n">
-        <v>101.8512331</v>
+        <v>101.50519584</v>
       </c>
       <c r="H4" t="n">
-        <v>100.229983</v>
+        <v>100.11587581</v>
       </c>
       <c r="I4" t="n">
-        <v>101.3200622</v>
+        <v>101.39471271</v>
       </c>
       <c r="J4" t="n">
-        <v>104.0049204</v>
+        <v>105.57749621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.54723559999999</v>
+        <v>98.21238941999999</v>
       </c>
       <c r="C5" t="n">
-        <v>100.02831135</v>
+        <v>100.73051669</v>
       </c>
       <c r="D5" t="n">
-        <v>101.54166134</v>
+        <v>102.10240219</v>
       </c>
       <c r="E5" t="n">
-        <v>102.01671968</v>
+        <v>102.08351857</v>
       </c>
       <c r="F5" t="n">
-        <v>99.98534906</v>
+        <v>100.07915187</v>
       </c>
       <c r="G5" t="n">
-        <v>101.60931001</v>
+        <v>101.50762861</v>
       </c>
       <c r="H5" t="n">
-        <v>100.23559893</v>
+        <v>100.13356818</v>
       </c>
       <c r="I5" t="n">
-        <v>101.5385975</v>
+        <v>101.3942059</v>
       </c>
       <c r="J5" t="n">
-        <v>103.96062113</v>
+        <v>105.82732925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.63153968</v>
+        <v>98.10846057000001</v>
       </c>
       <c r="C6" t="n">
-        <v>100.19896577</v>
+        <v>100.93421435</v>
       </c>
       <c r="D6" t="n">
-        <v>101.89699138</v>
+        <v>102.09527458</v>
       </c>
       <c r="E6" t="n">
-        <v>101.94937821</v>
+        <v>102.14738462</v>
       </c>
       <c r="F6" t="n">
-        <v>99.96060371999999</v>
+        <v>100.13882047</v>
       </c>
       <c r="G6" t="n">
-        <v>101.50768819</v>
+        <v>101.54161579</v>
       </c>
       <c r="H6" t="n">
-        <v>100.10408723</v>
+        <v>100.17733731</v>
       </c>
       <c r="I6" t="n">
-        <v>101.43193954</v>
+        <v>101.43106742</v>
       </c>
       <c r="J6" t="n">
-        <v>105.14866704</v>
+        <v>105.7516884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.30107151</v>
+        <v>98.16574559</v>
       </c>
       <c r="C7" t="n">
-        <v>100.53269098</v>
+        <v>101.10992299</v>
       </c>
       <c r="D7" t="n">
-        <v>102.01412539</v>
+        <v>102.0549868</v>
       </c>
       <c r="E7" t="n">
-        <v>102.02699943</v>
+        <v>102.19705221</v>
       </c>
       <c r="F7" t="n">
-        <v>100.01844894</v>
+        <v>100.19153935</v>
       </c>
       <c r="G7" t="n">
-        <v>101.50519584</v>
+        <v>101.55834051</v>
       </c>
       <c r="H7" t="n">
-        <v>100.11587581</v>
+        <v>100.21270238</v>
       </c>
       <c r="I7" t="n">
-        <v>101.39471271</v>
+        <v>101.43474413</v>
       </c>
       <c r="J7" t="n">
-        <v>105.57749621</v>
+        <v>105.52707092</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.21238941999999</v>
+        <v>98.2311006</v>
       </c>
       <c r="C8" t="n">
-        <v>100.73051669</v>
+        <v>101.42048676</v>
       </c>
       <c r="D8" t="n">
-        <v>102.10240219</v>
+        <v>101.98150124</v>
       </c>
       <c r="E8" t="n">
-        <v>102.08351857</v>
+        <v>102.24532127</v>
       </c>
       <c r="F8" t="n">
-        <v>100.07915187</v>
+        <v>100.23724409</v>
       </c>
       <c r="G8" t="n">
-        <v>101.50762861</v>
+        <v>101.58710684</v>
       </c>
       <c r="H8" t="n">
-        <v>100.13356818</v>
+        <v>100.23581613</v>
       </c>
       <c r="I8" t="n">
-        <v>101.3942059</v>
+        <v>101.42311622</v>
       </c>
       <c r="J8" t="n">
-        <v>105.82732925</v>
+        <v>105.18130862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.10846057000001</v>
+        <v>98.31906757</v>
       </c>
       <c r="C9" t="n">
-        <v>100.93421435</v>
+        <v>101.68054702</v>
       </c>
       <c r="D9" t="n">
-        <v>102.09527458</v>
+        <v>101.86080656</v>
       </c>
       <c r="E9" t="n">
-        <v>102.14738462</v>
+        <v>102.27994688</v>
       </c>
       <c r="F9" t="n">
-        <v>100.13882047</v>
+        <v>100.26963777</v>
       </c>
       <c r="G9" t="n">
-        <v>101.54161579</v>
+        <v>101.58613141</v>
       </c>
       <c r="H9" t="n">
-        <v>100.17733731</v>
+        <v>100.22650065</v>
       </c>
       <c r="I9" t="n">
-        <v>101.43106742</v>
+        <v>101.38639916</v>
       </c>
       <c r="J9" t="n">
-        <v>105.7516884</v>
+        <v>104.70704145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.16574559</v>
+        <v>98.48221782</v>
       </c>
       <c r="C10" t="n">
-        <v>101.10992299</v>
+        <v>101.868362</v>
       </c>
       <c r="D10" t="n">
-        <v>102.0549868</v>
+        <v>101.834381699999</v>
       </c>
       <c r="E10" t="n">
-        <v>102.19705221</v>
+        <v>102.305874</v>
       </c>
       <c r="F10" t="n">
-        <v>100.19153935</v>
+        <v>100.325981999999</v>
       </c>
       <c r="G10" t="n">
-        <v>101.55834051</v>
+        <v>101.676092199999</v>
       </c>
       <c r="H10" t="n">
-        <v>100.21270238</v>
+        <v>100.217701099999</v>
       </c>
       <c r="I10" t="n">
-        <v>101.43474413</v>
+        <v>101.3401264</v>
       </c>
       <c r="J10" t="n">
-        <v>105.52707092</v>
+        <v>104.470898</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.2311006</v>
+        <v>98.61344312</v>
       </c>
       <c r="C11" t="n">
-        <v>101.42048676</v>
+        <v>101.995775199999</v>
       </c>
       <c r="D11" t="n">
-        <v>101.98150124</v>
+        <v>101.8330519</v>
       </c>
       <c r="E11" t="n">
-        <v>102.24532127</v>
+        <v>102.376389</v>
       </c>
       <c r="F11" t="n">
-        <v>100.23724409</v>
+        <v>100.413863699999</v>
       </c>
       <c r="G11" t="n">
-        <v>101.58710684</v>
+        <v>101.754904699999</v>
       </c>
       <c r="H11" t="n">
-        <v>100.23581613</v>
+        <v>100.218853199999</v>
       </c>
       <c r="I11" t="n">
-        <v>101.42311622</v>
+        <v>101.320601999999</v>
       </c>
       <c r="J11" t="n">
-        <v>105.18130862</v>
+        <v>104.2992863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.31906757</v>
+        <v>98.75265192000001</v>
       </c>
       <c r="C12" t="n">
-        <v>101.68054702</v>
+        <v>102.1191161</v>
       </c>
       <c r="D12" t="n">
-        <v>101.86080656</v>
+        <v>101.8503774</v>
       </c>
       <c r="E12" t="n">
-        <v>102.27994688</v>
+        <v>102.4316389</v>
       </c>
       <c r="F12" t="n">
-        <v>100.26963777</v>
+        <v>100.5218848</v>
       </c>
       <c r="G12" t="n">
-        <v>101.58613141</v>
+        <v>101.8078225</v>
       </c>
       <c r="H12" t="n">
-        <v>100.22650065</v>
+        <v>100.2224733</v>
       </c>
       <c r="I12" t="n">
-        <v>101.38639916</v>
+        <v>101.3132401</v>
       </c>
       <c r="J12" t="n">
-        <v>104.70704145</v>
+        <v>104.183268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.48221782</v>
+        <v>98.94586173</v>
       </c>
       <c r="C13" t="n">
-        <v>101.868362</v>
+        <v>102.2355475</v>
       </c>
       <c r="D13" t="n">
-        <v>101.834381699999</v>
+        <v>101.8529578</v>
       </c>
       <c r="E13" t="n">
-        <v>102.305874</v>
+        <v>102.4765229</v>
       </c>
       <c r="F13" t="n">
-        <v>100.325981999999</v>
+        <v>100.6226976</v>
       </c>
       <c r="G13" t="n">
-        <v>101.676092199999</v>
+        <v>101.8512331</v>
       </c>
       <c r="H13" t="n">
-        <v>100.217701099999</v>
+        <v>100.229983</v>
       </c>
       <c r="I13" t="n">
-        <v>101.3401264</v>
+        <v>101.3200622</v>
       </c>
       <c r="J13" t="n">
-        <v>104.470898</v>
+        <v>104.0049204</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.3424926</v>
+        <v>102.5191735</v>
       </c>
       <c r="C14" t="n">
-        <v>102.4685121</v>
+        <v>104.4495375</v>
       </c>
       <c r="D14" t="n">
-        <v>101.1831509</v>
+        <v>102.242357</v>
       </c>
       <c r="E14" t="n">
-        <v>104.1226474</v>
+        <v>103.1015287</v>
       </c>
       <c r="F14" t="n">
-        <v>102.629536</v>
+        <v>102.0538628</v>
       </c>
       <c r="G14" t="n">
-        <v>102.3556895</v>
+        <v>102.4682059</v>
       </c>
       <c r="H14" t="n">
-        <v>101.1302934</v>
+        <v>100.4998107</v>
       </c>
       <c r="I14" t="n">
-        <v>101.2993044</v>
+        <v>101.3045856</v>
       </c>
       <c r="J14" t="n">
-        <v>98.83178133</v>
+        <v>102.2937259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.3678096</v>
+        <v>102.28382039</v>
       </c>
       <c r="C15" t="n">
-        <v>102.4171479</v>
+        <v>103.50630283</v>
       </c>
       <c r="D15" t="n">
-        <v>101.215143</v>
+        <v>101.40148758</v>
       </c>
       <c r="E15" t="n">
-        <v>104.1789203</v>
+        <v>103.18250266</v>
       </c>
       <c r="F15" t="n">
-        <v>102.6857936</v>
+        <v>102.1316022</v>
       </c>
       <c r="G15" t="n">
-        <v>102.3334981</v>
+        <v>102.35030522</v>
       </c>
       <c r="H15" t="n">
-        <v>101.184441</v>
+        <v>100.57283903</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3124376</v>
+        <v>101.17055627</v>
       </c>
       <c r="J15" t="n">
-        <v>98.86498786</v>
+        <v>99.82926525000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.3653666</v>
+        <v>102.2500905</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3660272</v>
+        <v>103.223047</v>
       </c>
       <c r="D16" t="n">
-        <v>101.2539529</v>
+        <v>101.1463527</v>
       </c>
       <c r="E16" t="n">
-        <v>104.2203773</v>
+        <v>103.3137763</v>
       </c>
       <c r="F16" t="n">
-        <v>102.7395974</v>
+        <v>102.1617842</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3171616</v>
+        <v>102.362759</v>
       </c>
       <c r="H16" t="n">
-        <v>101.2356206</v>
+        <v>100.6352985</v>
       </c>
       <c r="I16" t="n">
-        <v>101.3161336</v>
+        <v>101.1941017</v>
       </c>
       <c r="J16" t="n">
-        <v>98.93712539000001</v>
+        <v>99.00142473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.5191735</v>
+        <v>102.1714653</v>
       </c>
       <c r="C17" t="n">
-        <v>104.4495375</v>
+        <v>103.1555743</v>
       </c>
       <c r="D17" t="n">
-        <v>102.242357</v>
+        <v>101.0541832</v>
       </c>
       <c r="E17" t="n">
-        <v>103.1015287</v>
+        <v>103.4515627</v>
       </c>
       <c r="F17" t="n">
-        <v>102.0538628</v>
+        <v>102.2048967</v>
       </c>
       <c r="G17" t="n">
-        <v>102.4682059</v>
+        <v>102.3823035</v>
       </c>
       <c r="H17" t="n">
-        <v>100.4998107</v>
+        <v>100.7174714</v>
       </c>
       <c r="I17" t="n">
-        <v>101.3045856</v>
+        <v>101.2157459</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2937259</v>
+        <v>98.65631272</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102.28382039</v>
+        <v>101.9971679</v>
       </c>
       <c r="C18" t="n">
-        <v>103.50630283</v>
+        <v>103.091563</v>
       </c>
       <c r="D18" t="n">
-        <v>101.40148758</v>
+        <v>101.0579513</v>
       </c>
       <c r="E18" t="n">
-        <v>103.18250266</v>
+        <v>103.5920325</v>
       </c>
       <c r="F18" t="n">
-        <v>102.1316022</v>
+        <v>102.2638456</v>
       </c>
       <c r="G18" t="n">
-        <v>102.35030522</v>
+        <v>102.3966962</v>
       </c>
       <c r="H18" t="n">
-        <v>100.57283903</v>
+        <v>100.7923197</v>
       </c>
       <c r="I18" t="n">
-        <v>101.17055627</v>
+        <v>101.2336556</v>
       </c>
       <c r="J18" t="n">
-        <v>99.82926525000001</v>
+        <v>98.62828908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.2500905</v>
+        <v>101.7162387</v>
       </c>
       <c r="C19" t="n">
-        <v>103.223047</v>
+        <v>103.0318468</v>
       </c>
       <c r="D19" t="n">
-        <v>101.1463527</v>
+        <v>101.0441904</v>
       </c>
       <c r="E19" t="n">
-        <v>103.3137763</v>
+        <v>103.6858231</v>
       </c>
       <c r="F19" t="n">
-        <v>102.1617842</v>
+        <v>102.3214415</v>
       </c>
       <c r="G19" t="n">
-        <v>102.362759</v>
+        <v>102.4087829</v>
       </c>
       <c r="H19" t="n">
-        <v>100.6352985</v>
+        <v>100.8601403</v>
       </c>
       <c r="I19" t="n">
-        <v>101.1941017</v>
+        <v>101.2356055</v>
       </c>
       <c r="J19" t="n">
-        <v>99.00142473</v>
+        <v>98.60321207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.1714653</v>
+        <v>101.4670822</v>
       </c>
       <c r="C20" t="n">
-        <v>103.1555743</v>
+        <v>102.8318608</v>
       </c>
       <c r="D20" t="n">
-        <v>101.0541832</v>
+        <v>101.0447291</v>
       </c>
       <c r="E20" t="n">
-        <v>103.4515627</v>
+        <v>103.7951546</v>
       </c>
       <c r="F20" t="n">
-        <v>102.2048967</v>
+        <v>102.3799523</v>
       </c>
       <c r="G20" t="n">
-        <v>102.3823035</v>
+        <v>102.4145956</v>
       </c>
       <c r="H20" t="n">
-        <v>100.7174714</v>
+        <v>100.9259324</v>
       </c>
       <c r="I20" t="n">
-        <v>101.2157459</v>
+        <v>101.2370574</v>
       </c>
       <c r="J20" t="n">
-        <v>98.65631272</v>
+        <v>98.62087921</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.9971679</v>
+        <v>101.4062558</v>
       </c>
       <c r="C21" t="n">
-        <v>103.091563</v>
+        <v>102.6568314</v>
       </c>
       <c r="D21" t="n">
-        <v>101.0579513</v>
+        <v>101.1001131</v>
       </c>
       <c r="E21" t="n">
-        <v>103.5920325</v>
+        <v>103.8848799</v>
       </c>
       <c r="F21" t="n">
-        <v>102.2638456</v>
+        <v>102.4653988</v>
       </c>
       <c r="G21" t="n">
-        <v>102.3966962</v>
+        <v>102.4170719</v>
       </c>
       <c r="H21" t="n">
-        <v>100.7923197</v>
+        <v>100.9972984</v>
       </c>
       <c r="I21" t="n">
-        <v>101.2336556</v>
+        <v>101.2478344</v>
       </c>
       <c r="J21" t="n">
-        <v>98.62828908</v>
+        <v>98.72818042</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.7162387</v>
+        <v>101.3499751</v>
       </c>
       <c r="C22" t="n">
-        <v>103.0318468</v>
+        <v>102.5411402</v>
       </c>
       <c r="D22" t="n">
-        <v>101.0441904</v>
+        <v>101.1300743</v>
       </c>
       <c r="E22" t="n">
-        <v>103.6858231</v>
+        <v>104.0303848</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3214415</v>
+        <v>102.5509491</v>
       </c>
       <c r="G22" t="n">
-        <v>102.4087829</v>
+        <v>102.3819487</v>
       </c>
       <c r="H22" t="n">
-        <v>100.8601403</v>
+        <v>101.0630215</v>
       </c>
       <c r="I22" t="n">
-        <v>101.2356055</v>
+        <v>101.2732016</v>
       </c>
       <c r="J22" t="n">
-        <v>98.60321207</v>
+        <v>98.74747278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>101.4670822</v>
+        <v>101.3424926</v>
       </c>
       <c r="C23" t="n">
-        <v>102.8318608</v>
+        <v>102.4685121</v>
       </c>
       <c r="D23" t="n">
-        <v>101.0447291</v>
+        <v>101.1831509</v>
       </c>
       <c r="E23" t="n">
-        <v>103.7951546</v>
+        <v>104.1226474</v>
       </c>
       <c r="F23" t="n">
-        <v>102.3799523</v>
+        <v>102.629536</v>
       </c>
       <c r="G23" t="n">
-        <v>102.4145956</v>
+        <v>102.3556895</v>
       </c>
       <c r="H23" t="n">
-        <v>100.9259324</v>
+        <v>101.1302934</v>
       </c>
       <c r="I23" t="n">
-        <v>101.2370574</v>
+        <v>101.2993044</v>
       </c>
       <c r="J23" t="n">
-        <v>98.62087921</v>
+        <v>98.83178133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.4062558</v>
+        <v>101.3678096</v>
       </c>
       <c r="C24" t="n">
-        <v>102.6568314</v>
+        <v>102.4171479</v>
       </c>
       <c r="D24" t="n">
-        <v>101.1001131</v>
+        <v>101.215143</v>
       </c>
       <c r="E24" t="n">
-        <v>103.8848799</v>
+        <v>104.1789203</v>
       </c>
       <c r="F24" t="n">
-        <v>102.4653988</v>
+        <v>102.6857936</v>
       </c>
       <c r="G24" t="n">
-        <v>102.4170719</v>
+        <v>102.3334981</v>
       </c>
       <c r="H24" t="n">
-        <v>100.9972984</v>
+        <v>101.184441</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2478344</v>
+        <v>101.3124376</v>
       </c>
       <c r="J24" t="n">
-        <v>98.72818042</v>
+        <v>98.86498786</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.3499751</v>
+        <v>101.3653666</v>
       </c>
       <c r="C25" t="n">
-        <v>102.5411402</v>
+        <v>102.3660272</v>
       </c>
       <c r="D25" t="n">
-        <v>101.1300743</v>
+        <v>101.2539529</v>
       </c>
       <c r="E25" t="n">
-        <v>104.0303848</v>
+        <v>104.2203773</v>
       </c>
       <c r="F25" t="n">
-        <v>102.5509491</v>
+        <v>102.7395974</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3819487</v>
+        <v>102.3171616</v>
       </c>
       <c r="H25" t="n">
-        <v>101.0630215</v>
+        <v>101.2356206</v>
       </c>
       <c r="I25" t="n">
-        <v>101.2732016</v>
+        <v>101.3161336</v>
       </c>
       <c r="J25" t="n">
-        <v>98.74747278</v>
+        <v>98.93712539000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.98944776</v>
+        <v>100.4203468</v>
       </c>
       <c r="C26" t="n">
-        <v>101.22033112</v>
+        <v>101.0778341</v>
       </c>
       <c r="D26" t="n">
-        <v>102.07322138</v>
+        <v>101.4543307</v>
       </c>
       <c r="E26" t="n">
-        <v>103.87508522</v>
+        <v>104.8281211</v>
       </c>
       <c r="F26" t="n">
-        <v>103.28274073</v>
+        <v>103.2217805</v>
       </c>
       <c r="G26" t="n">
-        <v>102.18365739</v>
+        <v>101.8856215</v>
       </c>
       <c r="H26" t="n">
-        <v>101.62124567</v>
+        <v>101.853493</v>
       </c>
       <c r="I26" t="n">
-        <v>101.51958476</v>
+        <v>101.5692082</v>
       </c>
       <c r="J26" t="n">
-        <v>101.00768253</v>
+        <v>99.50827529999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101.97553276</v>
+        <v>100.9184835</v>
       </c>
       <c r="C27" t="n">
-        <v>101.21968423</v>
+        <v>101.6671185</v>
       </c>
       <c r="D27" t="n">
-        <v>102.08665209</v>
+        <v>102.0864865</v>
       </c>
       <c r="E27" t="n">
-        <v>103.75508653</v>
+        <v>104.7778034</v>
       </c>
       <c r="F27" t="n">
-        <v>103.28322974</v>
+        <v>103.1733588</v>
       </c>
       <c r="G27" t="n">
-        <v>102.18681911</v>
+        <v>102.1880834</v>
       </c>
       <c r="H27" t="n">
-        <v>101.58806951</v>
+        <v>101.8577642</v>
       </c>
       <c r="I27" t="n">
-        <v>101.52825066</v>
+        <v>101.6348399</v>
       </c>
       <c r="J27" t="n">
-        <v>101.09297556</v>
+        <v>101.1811866</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.78780467</v>
+        <v>100.7673624</v>
       </c>
       <c r="C28" t="n">
-        <v>101.24118079</v>
+        <v>101.5906556</v>
       </c>
       <c r="D28" t="n">
-        <v>102.06738506</v>
+        <v>102.0315382</v>
       </c>
       <c r="E28" t="n">
-        <v>103.65353538</v>
+        <v>104.6515764</v>
       </c>
       <c r="F28" t="n">
-        <v>103.26377599</v>
+        <v>103.0995171</v>
       </c>
       <c r="G28" t="n">
-        <v>102.18130533</v>
+        <v>102.182169</v>
       </c>
       <c r="H28" t="n">
-        <v>101.55456623</v>
+        <v>101.8392802</v>
       </c>
       <c r="I28" t="n">
-        <v>101.54102445</v>
+        <v>101.610438</v>
       </c>
       <c r="J28" t="n">
-        <v>101.14803119</v>
+        <v>101.1581181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.4203468</v>
+        <v>100.8668304</v>
       </c>
       <c r="C29" t="n">
-        <v>101.0778341</v>
+        <v>101.4890926</v>
       </c>
       <c r="D29" t="n">
-        <v>101.4543307</v>
+        <v>101.9</v>
       </c>
       <c r="E29" t="n">
-        <v>104.8281211</v>
+        <v>104.515557</v>
       </c>
       <c r="F29" t="n">
-        <v>103.2217805</v>
+        <v>103.1218052</v>
       </c>
       <c r="G29" t="n">
-        <v>101.8856215</v>
+        <v>102.1718763</v>
       </c>
       <c r="H29" t="n">
-        <v>101.853493</v>
+        <v>101.8169009</v>
       </c>
       <c r="I29" t="n">
-        <v>101.5692082</v>
+        <v>101.5643646</v>
       </c>
       <c r="J29" t="n">
-        <v>99.50827529999999</v>
+        <v>100.8948302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.9184835</v>
+        <v>101.0770108</v>
       </c>
       <c r="C30" t="n">
-        <v>101.6671185</v>
+        <v>101.4136656</v>
       </c>
       <c r="D30" t="n">
-        <v>102.0864865</v>
+        <v>101.9</v>
       </c>
       <c r="E30" t="n">
-        <v>104.7778034</v>
+        <v>104.426828</v>
       </c>
       <c r="F30" t="n">
-        <v>103.1733588</v>
+        <v>103.1439828</v>
       </c>
       <c r="G30" t="n">
-        <v>102.1880834</v>
+        <v>102.1513915</v>
       </c>
       <c r="H30" t="n">
-        <v>101.8577642</v>
+        <v>101.7917057</v>
       </c>
       <c r="I30" t="n">
-        <v>101.6348399</v>
+        <v>101.536294</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1811866</v>
+        <v>100.6867505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.7673624</v>
+        <v>101.32038515</v>
       </c>
       <c r="C31" t="n">
-        <v>101.5906556</v>
+        <v>101.35311913</v>
       </c>
       <c r="D31" t="n">
-        <v>102.0315382</v>
+        <v>101.89268483</v>
       </c>
       <c r="E31" t="n">
-        <v>104.6515764</v>
+        <v>104.3476312</v>
       </c>
       <c r="F31" t="n">
-        <v>103.0995171</v>
+        <v>103.16198127</v>
       </c>
       <c r="G31" t="n">
-        <v>102.182169</v>
+        <v>102.14085921</v>
       </c>
       <c r="H31" t="n">
-        <v>101.8392802</v>
+        <v>101.76688663</v>
       </c>
       <c r="I31" t="n">
-        <v>101.610438</v>
+        <v>101.53785615</v>
       </c>
       <c r="J31" t="n">
-        <v>101.1581181</v>
+        <v>100.60535801</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.8668304</v>
+        <v>101.5718759</v>
       </c>
       <c r="C32" t="n">
-        <v>101.4890926</v>
+        <v>101.31559789</v>
       </c>
       <c r="D32" t="n">
-        <v>101.9</v>
+        <v>101.90828329</v>
       </c>
       <c r="E32" t="n">
-        <v>104.515557</v>
+        <v>104.24938385</v>
       </c>
       <c r="F32" t="n">
-        <v>103.1218052</v>
+        <v>103.17854648</v>
       </c>
       <c r="G32" t="n">
-        <v>102.1718763</v>
+        <v>102.14571907</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8169009</v>
+        <v>101.73305198</v>
       </c>
       <c r="I32" t="n">
-        <v>101.5643646</v>
+        <v>101.53478506</v>
       </c>
       <c r="J32" t="n">
-        <v>100.8948302</v>
+        <v>100.58170754</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.0770108</v>
+        <v>101.71392968</v>
       </c>
       <c r="C33" t="n">
-        <v>101.4136656</v>
+        <v>101.2919406</v>
       </c>
       <c r="D33" t="n">
-        <v>101.9</v>
+        <v>101.95327551</v>
       </c>
       <c r="E33" t="n">
-        <v>104.426828</v>
+        <v>104.16508128</v>
       </c>
       <c r="F33" t="n">
-        <v>103.1439828</v>
+        <v>103.22323571</v>
       </c>
       <c r="G33" t="n">
-        <v>102.1513915</v>
+        <v>102.16702129</v>
       </c>
       <c r="H33" t="n">
-        <v>101.7917057</v>
+        <v>101.69311488</v>
       </c>
       <c r="I33" t="n">
-        <v>101.536294</v>
+        <v>101.53236358</v>
       </c>
       <c r="J33" t="n">
-        <v>100.6867505</v>
+        <v>100.66736531</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.32038515</v>
+        <v>101.84850585</v>
       </c>
       <c r="C34" t="n">
-        <v>101.35311913</v>
+        <v>101.23773304</v>
       </c>
       <c r="D34" t="n">
-        <v>101.89268483</v>
+        <v>102.01919989</v>
       </c>
       <c r="E34" t="n">
-        <v>104.3476312</v>
+        <v>104.01459972</v>
       </c>
       <c r="F34" t="n">
-        <v>103.16198127</v>
+        <v>103.25651413</v>
       </c>
       <c r="G34" t="n">
-        <v>102.14085921</v>
+        <v>102.17274277</v>
       </c>
       <c r="H34" t="n">
-        <v>101.76688663</v>
+        <v>101.65526718</v>
       </c>
       <c r="I34" t="n">
-        <v>101.53785615</v>
+        <v>101.51952098</v>
       </c>
       <c r="J34" t="n">
-        <v>100.60535801</v>
+        <v>100.86121287</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.5718759</v>
+        <v>101.98944776</v>
       </c>
       <c r="C35" t="n">
-        <v>101.31559789</v>
+        <v>101.22033112</v>
       </c>
       <c r="D35" t="n">
-        <v>101.90828329</v>
+        <v>102.07322138</v>
       </c>
       <c r="E35" t="n">
-        <v>104.24938385</v>
+        <v>103.87508522</v>
       </c>
       <c r="F35" t="n">
-        <v>103.17854648</v>
+        <v>103.28274073</v>
       </c>
       <c r="G35" t="n">
-        <v>102.14571907</v>
+        <v>102.18365739</v>
       </c>
       <c r="H35" t="n">
-        <v>101.73305198</v>
+        <v>101.62124567</v>
       </c>
       <c r="I35" t="n">
-        <v>101.53478506</v>
+        <v>101.51958476</v>
       </c>
       <c r="J35" t="n">
-        <v>100.58170754</v>
+        <v>101.00768253</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.71392968</v>
+        <v>101.97553276</v>
       </c>
       <c r="C36" t="n">
-        <v>101.2919406</v>
+        <v>101.21968423</v>
       </c>
       <c r="D36" t="n">
-        <v>101.95327551</v>
+        <v>102.08665209</v>
       </c>
       <c r="E36" t="n">
-        <v>104.16508128</v>
+        <v>103.75508653</v>
       </c>
       <c r="F36" t="n">
-        <v>103.22323571</v>
+        <v>103.28322974</v>
       </c>
       <c r="G36" t="n">
-        <v>102.16702129</v>
+        <v>102.18681911</v>
       </c>
       <c r="H36" t="n">
-        <v>101.69311488</v>
+        <v>101.58806951</v>
       </c>
       <c r="I36" t="n">
-        <v>101.53236358</v>
+        <v>101.52825066</v>
       </c>
       <c r="J36" t="n">
-        <v>100.66736531</v>
+        <v>101.09297556</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.84850585</v>
+        <v>101.78780467</v>
       </c>
       <c r="C37" t="n">
-        <v>101.23773304</v>
+        <v>101.24118079</v>
       </c>
       <c r="D37" t="n">
-        <v>102.01919989</v>
+        <v>102.06738506</v>
       </c>
       <c r="E37" t="n">
-        <v>104.01459972</v>
+        <v>103.65353538</v>
       </c>
       <c r="F37" t="n">
-        <v>103.25651413</v>
+        <v>103.26377599</v>
       </c>
       <c r="G37" t="n">
-        <v>102.17274277</v>
+        <v>102.18130533</v>
       </c>
       <c r="H37" t="n">
-        <v>101.65526718</v>
+        <v>101.55456623</v>
       </c>
       <c r="I37" t="n">
-        <v>101.51952098</v>
+        <v>101.54102445</v>
       </c>
       <c r="J37" t="n">
-        <v>100.86121287</v>
+        <v>101.14803119</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.59509889</v>
+        <v>98.91746092</v>
       </c>
       <c r="C38" t="n">
-        <v>102.86690505</v>
+        <v>102.39177301</v>
       </c>
       <c r="D38" t="n">
-        <v>102.78159626</v>
+        <v>101.66844525</v>
       </c>
       <c r="E38" t="n">
-        <v>102.22083716</v>
+        <v>102.64138785</v>
       </c>
       <c r="F38" t="n">
-        <v>101.7614967</v>
+        <v>102.82483166</v>
       </c>
       <c r="G38" t="n">
-        <v>102.00798862</v>
+        <v>102.36655427</v>
       </c>
       <c r="H38" t="n">
-        <v>100.83045332</v>
+        <v>101.158018</v>
       </c>
       <c r="I38" t="n">
-        <v>101.42148985</v>
+        <v>101.52245679</v>
       </c>
       <c r="J38" t="n">
-        <v>106.19878339</v>
+        <v>101.45898339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.49409985</v>
+        <v>99.02483924000001</v>
       </c>
       <c r="C39" t="n">
-        <v>102.99734286</v>
+        <v>102.0874173</v>
       </c>
       <c r="D39" t="n">
-        <v>103.02790759</v>
+        <v>101.52708421</v>
       </c>
       <c r="E39" t="n">
-        <v>102.16757254</v>
+        <v>102.67988806</v>
       </c>
       <c r="F39" t="n">
-        <v>101.61920206</v>
+        <v>102.80549458</v>
       </c>
       <c r="G39" t="n">
-        <v>101.95684175</v>
+        <v>102.33389955</v>
       </c>
       <c r="H39" t="n">
-        <v>100.80019741</v>
+        <v>101.16237537</v>
       </c>
       <c r="I39" t="n">
-        <v>101.32537881</v>
+        <v>101.64012686</v>
       </c>
       <c r="J39" t="n">
-        <v>107.1837719</v>
+        <v>100.98618232</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.5727476</v>
+        <v>99.45028487</v>
       </c>
       <c r="C40" t="n">
-        <v>103.08986846</v>
+        <v>101.97228528</v>
       </c>
       <c r="D40" t="n">
-        <v>103.22082148</v>
+        <v>101.76767359</v>
       </c>
       <c r="E40" t="n">
-        <v>102.13149945</v>
+        <v>102.66858026</v>
       </c>
       <c r="F40" t="n">
-        <v>101.50846851</v>
+        <v>102.75045118</v>
       </c>
       <c r="G40" t="n">
-        <v>101.9192487</v>
+        <v>102.26614758</v>
       </c>
       <c r="H40" t="n">
-        <v>100.76588822</v>
+        <v>101.10909636</v>
       </c>
       <c r="I40" t="n">
-        <v>101.22962126</v>
+        <v>101.65846994</v>
       </c>
       <c r="J40" t="n">
-        <v>107.89559568</v>
+        <v>101.66703078</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.91746092</v>
+        <v>99.53199221</v>
       </c>
       <c r="C41" t="n">
-        <v>102.39177301</v>
+        <v>101.93721423</v>
       </c>
       <c r="D41" t="n">
-        <v>101.66844525</v>
+        <v>101.98581132</v>
       </c>
       <c r="E41" t="n">
-        <v>102.64138785</v>
+        <v>102.63364569</v>
       </c>
       <c r="F41" t="n">
-        <v>102.82483166</v>
+        <v>102.63715145</v>
       </c>
       <c r="G41" t="n">
-        <v>102.36655427</v>
+        <v>102.23204534</v>
       </c>
       <c r="H41" t="n">
-        <v>101.158018</v>
+        <v>101.0521541</v>
       </c>
       <c r="I41" t="n">
-        <v>101.52245679</v>
+        <v>101.64744598</v>
       </c>
       <c r="J41" t="n">
-        <v>101.45898339</v>
+        <v>102.44696611</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.02483924000001</v>
+        <v>99.50828779</v>
       </c>
       <c r="C42" t="n">
-        <v>102.0874173</v>
+        <v>101.91643576</v>
       </c>
       <c r="D42" t="n">
-        <v>101.52708421</v>
+        <v>102.1546541</v>
       </c>
       <c r="E42" t="n">
-        <v>102.67988806</v>
+        <v>102.55601741</v>
       </c>
       <c r="F42" t="n">
-        <v>102.80549458</v>
+        <v>102.53433998</v>
       </c>
       <c r="G42" t="n">
-        <v>102.33389955</v>
+        <v>102.21270795</v>
       </c>
       <c r="H42" t="n">
-        <v>101.16237537</v>
+        <v>101.00231395</v>
       </c>
       <c r="I42" t="n">
-        <v>101.64012686</v>
+        <v>101.61563401</v>
       </c>
       <c r="J42" t="n">
-        <v>100.98618232</v>
+        <v>103.11954892</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.45028487</v>
+        <v>99.33209762</v>
       </c>
       <c r="C43" t="n">
-        <v>101.97228528</v>
+        <v>101.97774775</v>
       </c>
       <c r="D43" t="n">
-        <v>101.76767359</v>
+        <v>102.24968547</v>
       </c>
       <c r="E43" t="n">
-        <v>102.66858026</v>
+        <v>102.49088397</v>
       </c>
       <c r="F43" t="n">
-        <v>102.75045118</v>
+        <v>102.39333909</v>
       </c>
       <c r="G43" t="n">
-        <v>102.26614758</v>
+        <v>102.17871293</v>
       </c>
       <c r="H43" t="n">
-        <v>101.10909636</v>
+        <v>100.94729249</v>
       </c>
       <c r="I43" t="n">
-        <v>101.65846994</v>
+        <v>101.59777857</v>
       </c>
       <c r="J43" t="n">
-        <v>101.66703078</v>
+        <v>103.63447375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.53199221</v>
+        <v>99.16643553</v>
       </c>
       <c r="C44" t="n">
-        <v>101.93721423</v>
+        <v>102.11977797</v>
       </c>
       <c r="D44" t="n">
-        <v>101.98581132</v>
+        <v>102.34461791</v>
       </c>
       <c r="E44" t="n">
-        <v>102.63364569</v>
+        <v>102.41683526</v>
       </c>
       <c r="F44" t="n">
-        <v>102.63715145</v>
+        <v>102.2672219</v>
       </c>
       <c r="G44" t="n">
-        <v>102.23204534</v>
+        <v>102.15089967</v>
       </c>
       <c r="H44" t="n">
-        <v>101.0521541</v>
+        <v>100.9094185</v>
       </c>
       <c r="I44" t="n">
-        <v>101.64744598</v>
+        <v>101.59029503</v>
       </c>
       <c r="J44" t="n">
-        <v>102.44696611</v>
+        <v>104.12460163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.50828779</v>
+        <v>99.00688968999999</v>
       </c>
       <c r="C45" t="n">
-        <v>101.91643576</v>
+        <v>102.35908109</v>
       </c>
       <c r="D45" t="n">
-        <v>102.1546541</v>
+        <v>102.44283075</v>
       </c>
       <c r="E45" t="n">
-        <v>102.55601741</v>
+        <v>102.34314607</v>
       </c>
       <c r="F45" t="n">
-        <v>102.53433998</v>
+        <v>102.09846888</v>
       </c>
       <c r="G45" t="n">
-        <v>102.21270795</v>
+        <v>102.12335446</v>
       </c>
       <c r="H45" t="n">
-        <v>101.00231395</v>
+        <v>100.88612533</v>
       </c>
       <c r="I45" t="n">
-        <v>101.61563401</v>
+        <v>101.54470497</v>
       </c>
       <c r="J45" t="n">
-        <v>103.11954892</v>
+        <v>104.64522344</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.33209762</v>
+        <v>98.81474806</v>
       </c>
       <c r="C46" t="n">
-        <v>101.97774775</v>
+        <v>102.64326558</v>
       </c>
       <c r="D46" t="n">
-        <v>102.24968547</v>
+        <v>102.57431986</v>
       </c>
       <c r="E46" t="n">
-        <v>102.49088397</v>
+        <v>102.27908745</v>
       </c>
       <c r="F46" t="n">
-        <v>102.39333909</v>
+        <v>101.93148192</v>
       </c>
       <c r="G46" t="n">
-        <v>102.17871293</v>
+        <v>102.05901442</v>
       </c>
       <c r="H46" t="n">
-        <v>100.94729249</v>
+        <v>100.86141766</v>
       </c>
       <c r="I46" t="n">
-        <v>101.59777857</v>
+        <v>101.50245251</v>
       </c>
       <c r="J46" t="n">
-        <v>103.63447375</v>
+        <v>105.28783421</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.16643553</v>
+        <v>98.59509889</v>
       </c>
       <c r="C47" t="n">
-        <v>102.11977797</v>
+        <v>102.86690505</v>
       </c>
       <c r="D47" t="n">
-        <v>102.34461791</v>
+        <v>102.78159626</v>
       </c>
       <c r="E47" t="n">
-        <v>102.41683526</v>
+        <v>102.22083716</v>
       </c>
       <c r="F47" t="n">
-        <v>102.2672219</v>
+        <v>101.7614967</v>
       </c>
       <c r="G47" t="n">
-        <v>102.15089967</v>
+        <v>102.00798862</v>
       </c>
       <c r="H47" t="n">
-        <v>100.9094185</v>
+        <v>100.83045332</v>
       </c>
       <c r="I47" t="n">
-        <v>101.59029503</v>
+        <v>101.42148985</v>
       </c>
       <c r="J47" t="n">
-        <v>104.12460163</v>
+        <v>106.19878339</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.00688968999999</v>
+        <v>98.49409985</v>
       </c>
       <c r="C48" t="n">
-        <v>102.35908109</v>
+        <v>102.99734286</v>
       </c>
       <c r="D48" t="n">
-        <v>102.44283075</v>
+        <v>103.02790759</v>
       </c>
       <c r="E48" t="n">
-        <v>102.34314607</v>
+        <v>102.16757254</v>
       </c>
       <c r="F48" t="n">
-        <v>102.09846888</v>
+        <v>101.61920206</v>
       </c>
       <c r="G48" t="n">
-        <v>102.12335446</v>
+        <v>101.95684175</v>
       </c>
       <c r="H48" t="n">
-        <v>100.88612533</v>
+        <v>100.80019741</v>
       </c>
       <c r="I48" t="n">
-        <v>101.54470497</v>
+        <v>101.32537881</v>
       </c>
       <c r="J48" t="n">
-        <v>104.64522344</v>
+        <v>107.1837719</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>98.81474806</v>
+        <v>98.5727476</v>
       </c>
       <c r="C49" t="n">
-        <v>102.64326558</v>
+        <v>103.08986846</v>
       </c>
       <c r="D49" t="n">
-        <v>102.57431986</v>
+        <v>103.22082148</v>
       </c>
       <c r="E49" t="n">
-        <v>102.27908745</v>
+        <v>102.13149945</v>
       </c>
       <c r="F49" t="n">
-        <v>101.93148192</v>
+        <v>101.50846851</v>
       </c>
       <c r="G49" t="n">
-        <v>102.05901442</v>
+        <v>101.9192487</v>
       </c>
       <c r="H49" t="n">
-        <v>100.86141766</v>
+        <v>100.76588822</v>
       </c>
       <c r="I49" t="n">
-        <v>101.50245251</v>
+        <v>101.22962126</v>
       </c>
       <c r="J49" t="n">
-        <v>105.28783421</v>
+        <v>107.89559568</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>96.90000000000001</v>
+        <v>100.94691699</v>
       </c>
       <c r="C50" t="n">
-        <v>104.5</v>
+        <v>104.30817739</v>
       </c>
       <c r="D50" t="n">
-        <v>103.7</v>
+        <v>106.28149365</v>
       </c>
       <c r="E50" t="n">
-        <v>102.1</v>
+        <v>101.87905507</v>
       </c>
       <c r="F50" t="n">
-        <v>99.5</v>
+        <v>100.32676095</v>
       </c>
       <c r="G50" t="n">
-        <v>101.1</v>
+        <v>101.5013011</v>
       </c>
       <c r="H50" t="n">
-        <v>99.90000000000001</v>
+        <v>100.25342542</v>
       </c>
       <c r="I50" t="n">
-        <v>99.7</v>
+        <v>100.0977965</v>
       </c>
       <c r="J50" t="n">
-        <v>111.8</v>
+        <v>118.04766818</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>96.8</v>
+        <v>99.78041783</v>
       </c>
       <c r="C51" t="n">
-        <v>104.3</v>
+        <v>104.03585612</v>
       </c>
       <c r="D51" t="n">
-        <v>103.3</v>
+        <v>106.29072207</v>
       </c>
       <c r="E51" t="n">
-        <v>102</v>
+        <v>101.8918174</v>
       </c>
       <c r="F51" t="n">
-        <v>99.5</v>
+        <v>100.20680564</v>
       </c>
       <c r="G51" t="n">
-        <v>101.1</v>
+        <v>101.23437869</v>
       </c>
       <c r="H51" t="n">
-        <v>99.90000000000001</v>
+        <v>100.147124</v>
       </c>
       <c r="I51" t="n">
-        <v>99.7</v>
+        <v>100.09234361</v>
       </c>
       <c r="J51" t="n">
-        <v>110.4</v>
+        <v>118.61820052</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>96.8</v>
+        <v>98.78205308</v>
       </c>
       <c r="C52" t="n">
-        <v>104.1</v>
+        <v>104.27735475</v>
       </c>
       <c r="D52" t="n">
-        <v>103</v>
+        <v>105.94460244</v>
       </c>
       <c r="E52" t="n">
-        <v>102</v>
+        <v>101.9071049</v>
       </c>
       <c r="F52" t="n">
-        <v>99.5</v>
+        <v>100.03898368</v>
       </c>
       <c r="G52" t="n">
-        <v>101.1</v>
+        <v>101.28059226</v>
       </c>
       <c r="H52" t="n">
-        <v>99.90000000000001</v>
+        <v>100.12622102</v>
       </c>
       <c r="I52" t="n">
-        <v>99.7</v>
+        <v>99.97148215</v>
       </c>
       <c r="J52" t="n">
-        <v>109.6</v>
+        <v>117.96546008</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.94691699</v>
+        <v>97.98220428</v>
       </c>
       <c r="C53" t="n">
-        <v>104.30817739</v>
+        <v>104.3819968</v>
       </c>
       <c r="D53" t="n">
-        <v>106.28149365</v>
+        <v>105.46818155</v>
       </c>
       <c r="E53" t="n">
-        <v>101.87905507</v>
+        <v>101.96802595</v>
       </c>
       <c r="F53" t="n">
-        <v>100.32676095</v>
+        <v>99.87266936</v>
       </c>
       <c r="G53" t="n">
-        <v>101.5013011</v>
+        <v>101.26905464</v>
       </c>
       <c r="H53" t="n">
-        <v>100.25342542</v>
+        <v>100.08208327</v>
       </c>
       <c r="I53" t="n">
-        <v>100.0977965</v>
+        <v>99.84463556999999</v>
       </c>
       <c r="J53" t="n">
-        <v>118.04766818</v>
+        <v>116.84614549</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.78041783</v>
+        <v>97.43335492999999</v>
       </c>
       <c r="C54" t="n">
-        <v>104.03585612</v>
+        <v>104.53060948</v>
       </c>
       <c r="D54" t="n">
-        <v>106.29072207</v>
+        <v>104.97537094</v>
       </c>
       <c r="E54" t="n">
-        <v>101.8918174</v>
+        <v>102.03392909</v>
       </c>
       <c r="F54" t="n">
-        <v>100.20680564</v>
+        <v>99.73215481</v>
       </c>
       <c r="G54" t="n">
-        <v>101.23437869</v>
+        <v>101.28148023</v>
       </c>
       <c r="H54" t="n">
-        <v>100.147124</v>
+        <v>100.04728504</v>
       </c>
       <c r="I54" t="n">
-        <v>100.09234361</v>
+        <v>99.76752736</v>
       </c>
       <c r="J54" t="n">
-        <v>118.61820052</v>
+        <v>115.545839</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.78205308</v>
+        <v>97.150226</v>
       </c>
       <c r="C55" t="n">
-        <v>104.27735475</v>
+        <v>104.61751197</v>
       </c>
       <c r="D55" t="n">
-        <v>105.94460244</v>
+        <v>104.68222107</v>
       </c>
       <c r="E55" t="n">
-        <v>101.9071049</v>
+        <v>102.06726432</v>
       </c>
       <c r="F55" t="n">
-        <v>100.03898368</v>
+        <v>99.66741042</v>
       </c>
       <c r="G55" t="n">
-        <v>101.28059226</v>
+        <v>101.2876419</v>
       </c>
       <c r="H55" t="n">
-        <v>100.12622102</v>
+        <v>100.01110573</v>
       </c>
       <c r="I55" t="n">
-        <v>99.97148215</v>
+        <v>99.71642727</v>
       </c>
       <c r="J55" t="n">
-        <v>117.96546008</v>
+        <v>114.7473595</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>97.98220428</v>
+        <v>97.00533360999999</v>
       </c>
       <c r="C56" t="n">
-        <v>104.3819968</v>
+        <v>104.64350446</v>
       </c>
       <c r="D56" t="n">
-        <v>105.46818155</v>
+        <v>104.54050815</v>
       </c>
       <c r="E56" t="n">
-        <v>101.96802595</v>
+        <v>102.07284855</v>
       </c>
       <c r="F56" t="n">
-        <v>99.87266936</v>
+        <v>99.61296027</v>
       </c>
       <c r="G56" t="n">
-        <v>101.26905464</v>
+        <v>101.21782647</v>
       </c>
       <c r="H56" t="n">
-        <v>100.08208327</v>
+        <v>99.97095315</v>
       </c>
       <c r="I56" t="n">
-        <v>99.84463556999999</v>
+        <v>99.68155464</v>
       </c>
       <c r="J56" t="n">
-        <v>116.84614549</v>
+        <v>114.40074614</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>97.43335492999999</v>
+        <v>96.94375881000001</v>
       </c>
       <c r="C57" t="n">
-        <v>104.53060948</v>
+        <v>104.74401254</v>
       </c>
       <c r="D57" t="n">
-        <v>104.97537094</v>
+        <v>104.36529322</v>
       </c>
       <c r="E57" t="n">
-        <v>102.03392909</v>
+        <v>102.06736546</v>
       </c>
       <c r="F57" t="n">
-        <v>99.73215481</v>
+        <v>99.57466665</v>
       </c>
       <c r="G57" t="n">
-        <v>101.28148023</v>
+        <v>101.14078758</v>
       </c>
       <c r="H57" t="n">
-        <v>100.04728504</v>
+        <v>99.92553976000001</v>
       </c>
       <c r="I57" t="n">
-        <v>99.76752736</v>
+        <v>99.67791250000001</v>
       </c>
       <c r="J57" t="n">
-        <v>115.545839</v>
+        <v>113.86941684</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>97.150226</v>
+        <v>96.91193341</v>
       </c>
       <c r="C58" t="n">
-        <v>104.61751197</v>
+        <v>104.71173824</v>
       </c>
       <c r="D58" t="n">
-        <v>104.68222107</v>
+        <v>104.1038158</v>
       </c>
       <c r="E58" t="n">
-        <v>102.06726432</v>
+        <v>102.0610026</v>
       </c>
       <c r="F58" t="n">
-        <v>99.66741042</v>
+        <v>99.54127171</v>
       </c>
       <c r="G58" t="n">
-        <v>101.2876419</v>
+        <v>101.12800787</v>
       </c>
       <c r="H58" t="n">
-        <v>100.01110573</v>
+        <v>99.89815695999999</v>
       </c>
       <c r="I58" t="n">
-        <v>99.71642727</v>
+        <v>99.67960806000001</v>
       </c>
       <c r="J58" t="n">
-        <v>114.7473595</v>
+        <v>113.01447231</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>97.00533360999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>104.64350446</v>
+        <v>104.5</v>
       </c>
       <c r="D59" t="n">
-        <v>104.54050815</v>
+        <v>103.7</v>
       </c>
       <c r="E59" t="n">
-        <v>102.07284855</v>
+        <v>102.1</v>
       </c>
       <c r="F59" t="n">
-        <v>99.61296027</v>
+        <v>99.5</v>
       </c>
       <c r="G59" t="n">
-        <v>101.21782647</v>
+        <v>101.1</v>
       </c>
       <c r="H59" t="n">
-        <v>99.97095315</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>99.68155464</v>
+        <v>99.7</v>
       </c>
       <c r="J59" t="n">
-        <v>114.40074614</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>96.94375881000001</v>
+        <v>96.8</v>
       </c>
       <c r="C60" t="n">
-        <v>104.74401254</v>
+        <v>104.3</v>
       </c>
       <c r="D60" t="n">
-        <v>104.36529322</v>
+        <v>103.3</v>
       </c>
       <c r="E60" t="n">
-        <v>102.06736546</v>
+        <v>102</v>
       </c>
       <c r="F60" t="n">
-        <v>99.57466665</v>
+        <v>99.5</v>
       </c>
       <c r="G60" t="n">
-        <v>101.14078758</v>
+        <v>101.1</v>
       </c>
       <c r="H60" t="n">
-        <v>99.92553976000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I60" t="n">
-        <v>99.67791250000001</v>
+        <v>99.7</v>
       </c>
       <c r="J60" t="n">
-        <v>113.86941684</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>96.91193341</v>
+        <v>96.8</v>
       </c>
       <c r="C61" t="n">
-        <v>104.71173824</v>
+        <v>104.1</v>
       </c>
       <c r="D61" t="n">
-        <v>104.1038158</v>
+        <v>103</v>
       </c>
       <c r="E61" t="n">
-        <v>102.0610026</v>
+        <v>102</v>
       </c>
       <c r="F61" t="n">
-        <v>99.54127171</v>
+        <v>99.5</v>
       </c>
       <c r="G61" t="n">
-        <v>101.12800787</v>
+        <v>101.1</v>
       </c>
       <c r="H61" t="n">
-        <v>99.89815695999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I61" t="n">
-        <v>99.67960806000001</v>
+        <v>99.7</v>
       </c>
       <c r="J61" t="n">
-        <v>113.01447231</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>103.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>98.7</v>
+        <v>99.2</v>
       </c>
       <c r="D62" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E62" t="n">
         <v>100.6</v>
       </c>
       <c r="F62" t="n">
-        <v>100.9</v>
+        <v>99.8</v>
       </c>
       <c r="G62" t="n">
-        <v>101.6</v>
+        <v>100.8</v>
       </c>
       <c r="H62" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>98.59999999999999</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>103.9</v>
+        <v>97.3</v>
       </c>
       <c r="C63" t="n">
-        <v>98.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="F63" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="G63" t="n">
-        <v>101.7</v>
+        <v>100.9</v>
       </c>
       <c r="H63" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="I63" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="J63" t="n">
-        <v>98.8</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>103.9</v>
+        <v>99</v>
       </c>
       <c r="C64" t="n">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="D64" t="n">
-        <v>100.7</v>
+        <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="F64" t="n">
-        <v>101.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>101.7</v>
+        <v>101</v>
       </c>
       <c r="H64" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J64" t="n">
         <v>100.4</v>
-      </c>
-      <c r="I64" t="n">
-        <v>100</v>
-      </c>
-      <c r="J64" t="n">
-        <v>98.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>96.09999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="C65" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="E65" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="F65" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="G65" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="H65" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="J65" t="n">
-        <v>101.4</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>97.3</v>
+        <v>101.2</v>
       </c>
       <c r="C66" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="D66" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="E66" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="F66" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="G66" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="H66" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="I66" t="n">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B67" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="C67" t="n">
         <v>99</v>
       </c>
-      <c r="C67" t="n">
-        <v>99.3</v>
-      </c>
       <c r="D67" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="H67" t="n">
         <v>100</v>
       </c>
-      <c r="E67" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="F67" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G67" t="n">
-        <v>101</v>
-      </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J67" t="n">
         <v>99.8</v>
-      </c>
-      <c r="I67" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J67" t="n">
-        <v>100.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.3</v>
+        <v>102.5</v>
       </c>
       <c r="C68" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="E68" t="n">
         <v>100.5</v>
       </c>
       <c r="F68" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H68" t="n">
         <v>100.1</v>
       </c>
-      <c r="G68" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="I68" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="J68" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>101.2</v>
+        <v>102.9</v>
       </c>
       <c r="C69" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="D69" t="n">
         <v>100.4</v>
       </c>
       <c r="E69" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="F69" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="G69" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="H69" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="I69" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="J69" t="n">
-        <v>100.1</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>101.9</v>
+        <v>103.2</v>
       </c>
       <c r="C70" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D70" t="n">
         <v>100.4</v>
       </c>
       <c r="E70" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="F70" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="G70" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="H70" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="I70" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>102.5</v>
+        <v>103.5</v>
       </c>
       <c r="C71" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D71" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="E71" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="F71" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="G71" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="H71" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="I71" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>99.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>102.9</v>
+        <v>103.9</v>
       </c>
       <c r="C72" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D72" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="E72" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="F72" t="n">
-        <v>100.6</v>
+        <v>101</v>
       </c>
       <c r="G72" t="n">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="H72" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="I72" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="J72" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>103.2</v>
+        <v>103.9</v>
       </c>
       <c r="C73" t="n">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="D73" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H73" t="n">
         <v>100.4</v>
       </c>
-      <c r="E73" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G73" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="H73" t="n">
-        <v>100.2</v>
-      </c>
       <c r="I73" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J73" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/农村居民消费价格分类指数(上年同期=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/农村居民消费价格分类指数(上年同期=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,2449 +483,3095 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.54723559999999</v>
+        <v>98.61344312</v>
       </c>
       <c r="C2" t="n">
-        <v>100.02831135</v>
+        <v>101.995775199999</v>
       </c>
       <c r="D2" t="n">
-        <v>101.54166134</v>
+        <v>101.8330519</v>
       </c>
       <c r="E2" t="n">
-        <v>102.01671968</v>
+        <v>102.376389</v>
       </c>
       <c r="F2" t="n">
-        <v>99.98534906</v>
+        <v>100.413863699999</v>
       </c>
       <c r="G2" t="n">
-        <v>101.60931001</v>
+        <v>101.754904699999</v>
       </c>
       <c r="H2" t="n">
-        <v>100.23559893</v>
+        <v>100.218853199999</v>
       </c>
       <c r="I2" t="n">
-        <v>101.5385975</v>
+        <v>101.320601999999</v>
       </c>
       <c r="J2" t="n">
-        <v>103.96062113</v>
+        <v>104.2992863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.63153968</v>
+        <v>98.75265192000001</v>
       </c>
       <c r="C3" t="n">
-        <v>100.19896577</v>
+        <v>102.1191161</v>
       </c>
       <c r="D3" t="n">
-        <v>101.89699138</v>
+        <v>101.8503774</v>
       </c>
       <c r="E3" t="n">
-        <v>101.94937821</v>
+        <v>102.4316389</v>
       </c>
       <c r="F3" t="n">
-        <v>99.96060371999999</v>
+        <v>100.5218848</v>
       </c>
       <c r="G3" t="n">
-        <v>101.50768819</v>
+        <v>101.8078225</v>
       </c>
       <c r="H3" t="n">
-        <v>100.10408723</v>
+        <v>100.2224733</v>
       </c>
       <c r="I3" t="n">
-        <v>101.43193954</v>
+        <v>101.3132401</v>
       </c>
       <c r="J3" t="n">
-        <v>105.14866704</v>
+        <v>104.183268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.30107151</v>
+        <v>98.94586173</v>
       </c>
       <c r="C4" t="n">
-        <v>100.53269098</v>
+        <v>102.2355475</v>
       </c>
       <c r="D4" t="n">
-        <v>102.01412539</v>
+        <v>101.8529578</v>
       </c>
       <c r="E4" t="n">
-        <v>102.02699943</v>
+        <v>102.4765229</v>
       </c>
       <c r="F4" t="n">
-        <v>100.01844894</v>
+        <v>100.6226976</v>
       </c>
       <c r="G4" t="n">
-        <v>101.50519584</v>
+        <v>101.8512331</v>
       </c>
       <c r="H4" t="n">
-        <v>100.11587581</v>
+        <v>100.229983</v>
       </c>
       <c r="I4" t="n">
-        <v>101.39471271</v>
+        <v>101.3200622</v>
       </c>
       <c r="J4" t="n">
-        <v>105.57749621</v>
+        <v>104.0049204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.21238941999999</v>
+        <v>98.54723559999999</v>
       </c>
       <c r="C5" t="n">
-        <v>100.73051669</v>
+        <v>100.02831135</v>
       </c>
       <c r="D5" t="n">
-        <v>102.10240219</v>
+        <v>101.54166134</v>
       </c>
       <c r="E5" t="n">
-        <v>102.08351857</v>
+        <v>102.01671968</v>
       </c>
       <c r="F5" t="n">
-        <v>100.07915187</v>
+        <v>99.98534906</v>
       </c>
       <c r="G5" t="n">
-        <v>101.50762861</v>
+        <v>101.60931001</v>
       </c>
       <c r="H5" t="n">
-        <v>100.13356818</v>
+        <v>100.23559893</v>
       </c>
       <c r="I5" t="n">
-        <v>101.3942059</v>
+        <v>101.5385975</v>
       </c>
       <c r="J5" t="n">
-        <v>105.82732925</v>
+        <v>103.96062113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.10846057000001</v>
+        <v>98.63153968</v>
       </c>
       <c r="C6" t="n">
-        <v>100.93421435</v>
+        <v>100.19896577</v>
       </c>
       <c r="D6" t="n">
-        <v>102.09527458</v>
+        <v>101.89699138</v>
       </c>
       <c r="E6" t="n">
-        <v>102.14738462</v>
+        <v>101.94937821</v>
       </c>
       <c r="F6" t="n">
-        <v>100.13882047</v>
+        <v>99.96060371999999</v>
       </c>
       <c r="G6" t="n">
-        <v>101.54161579</v>
+        <v>101.50768819</v>
       </c>
       <c r="H6" t="n">
-        <v>100.17733731</v>
+        <v>100.10408723</v>
       </c>
       <c r="I6" t="n">
-        <v>101.43106742</v>
+        <v>101.43193954</v>
       </c>
       <c r="J6" t="n">
-        <v>105.7516884</v>
+        <v>105.14866704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.16574559</v>
+        <v>98.30107151</v>
       </c>
       <c r="C7" t="n">
-        <v>101.10992299</v>
+        <v>100.53269098</v>
       </c>
       <c r="D7" t="n">
-        <v>102.0549868</v>
+        <v>102.01412539</v>
       </c>
       <c r="E7" t="n">
-        <v>102.19705221</v>
+        <v>102.02699943</v>
       </c>
       <c r="F7" t="n">
-        <v>100.19153935</v>
+        <v>100.01844894</v>
       </c>
       <c r="G7" t="n">
-        <v>101.55834051</v>
+        <v>101.50519584</v>
       </c>
       <c r="H7" t="n">
-        <v>100.21270238</v>
+        <v>100.11587581</v>
       </c>
       <c r="I7" t="n">
-        <v>101.43474413</v>
+        <v>101.39471271</v>
       </c>
       <c r="J7" t="n">
-        <v>105.52707092</v>
+        <v>105.57749621</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.2311006</v>
+        <v>98.21238941999999</v>
       </c>
       <c r="C8" t="n">
-        <v>101.42048676</v>
+        <v>100.73051669</v>
       </c>
       <c r="D8" t="n">
-        <v>101.98150124</v>
+        <v>102.10240219</v>
       </c>
       <c r="E8" t="n">
-        <v>102.24532127</v>
+        <v>102.08351857</v>
       </c>
       <c r="F8" t="n">
-        <v>100.23724409</v>
+        <v>100.07915187</v>
       </c>
       <c r="G8" t="n">
-        <v>101.58710684</v>
+        <v>101.50762861</v>
       </c>
       <c r="H8" t="n">
-        <v>100.23581613</v>
+        <v>100.13356818</v>
       </c>
       <c r="I8" t="n">
-        <v>101.42311622</v>
+        <v>101.3942059</v>
       </c>
       <c r="J8" t="n">
-        <v>105.18130862</v>
+        <v>105.82732925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98.31906757</v>
+        <v>98.10846057000001</v>
       </c>
       <c r="C9" t="n">
-        <v>101.68054702</v>
+        <v>100.93421435</v>
       </c>
       <c r="D9" t="n">
-        <v>101.86080656</v>
+        <v>102.09527458</v>
       </c>
       <c r="E9" t="n">
-        <v>102.27994688</v>
+        <v>102.14738462</v>
       </c>
       <c r="F9" t="n">
-        <v>100.26963777</v>
+        <v>100.13882047</v>
       </c>
       <c r="G9" t="n">
-        <v>101.58613141</v>
+        <v>101.54161579</v>
       </c>
       <c r="H9" t="n">
-        <v>100.22650065</v>
+        <v>100.17733731</v>
       </c>
       <c r="I9" t="n">
-        <v>101.38639916</v>
+        <v>101.43106742</v>
       </c>
       <c r="J9" t="n">
-        <v>104.70704145</v>
+        <v>105.7516884</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.48221782</v>
+        <v>98.16574559</v>
       </c>
       <c r="C10" t="n">
-        <v>101.868362</v>
+        <v>101.10992299</v>
       </c>
       <c r="D10" t="n">
-        <v>101.834381699999</v>
+        <v>102.0549868</v>
       </c>
       <c r="E10" t="n">
-        <v>102.305874</v>
+        <v>102.19705221</v>
       </c>
       <c r="F10" t="n">
-        <v>100.325981999999</v>
+        <v>100.19153935</v>
       </c>
       <c r="G10" t="n">
-        <v>101.676092199999</v>
+        <v>101.55834051</v>
       </c>
       <c r="H10" t="n">
-        <v>100.217701099999</v>
+        <v>100.21270238</v>
       </c>
       <c r="I10" t="n">
-        <v>101.3401264</v>
+        <v>101.43474413</v>
       </c>
       <c r="J10" t="n">
-        <v>104.470898</v>
+        <v>105.52707092</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.61344312</v>
+        <v>98.2311006</v>
       </c>
       <c r="C11" t="n">
-        <v>101.995775199999</v>
+        <v>101.42048676</v>
       </c>
       <c r="D11" t="n">
-        <v>101.8330519</v>
+        <v>101.98150124</v>
       </c>
       <c r="E11" t="n">
-        <v>102.376389</v>
+        <v>102.24532127</v>
       </c>
       <c r="F11" t="n">
-        <v>100.413863699999</v>
+        <v>100.23724409</v>
       </c>
       <c r="G11" t="n">
-        <v>101.754904699999</v>
+        <v>101.58710684</v>
       </c>
       <c r="H11" t="n">
-        <v>100.218853199999</v>
+        <v>100.23581613</v>
       </c>
       <c r="I11" t="n">
-        <v>101.320601999999</v>
+        <v>101.42311622</v>
       </c>
       <c r="J11" t="n">
-        <v>104.2992863</v>
+        <v>105.18130862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.75265192000001</v>
+        <v>98.31906757</v>
       </c>
       <c r="C12" t="n">
-        <v>102.1191161</v>
+        <v>101.68054702</v>
       </c>
       <c r="D12" t="n">
-        <v>101.8503774</v>
+        <v>101.86080656</v>
       </c>
       <c r="E12" t="n">
-        <v>102.4316389</v>
+        <v>102.27994688</v>
       </c>
       <c r="F12" t="n">
-        <v>100.5218848</v>
+        <v>100.26963777</v>
       </c>
       <c r="G12" t="n">
-        <v>101.8078225</v>
+        <v>101.58613141</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2224733</v>
+        <v>100.22650065</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3132401</v>
+        <v>101.38639916</v>
       </c>
       <c r="J12" t="n">
-        <v>104.183268</v>
+        <v>104.70704145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.94586173</v>
+        <v>98.48221782</v>
       </c>
       <c r="C13" t="n">
-        <v>102.2355475</v>
+        <v>101.868362</v>
       </c>
       <c r="D13" t="n">
-        <v>101.8529578</v>
+        <v>101.834381699999</v>
       </c>
       <c r="E13" t="n">
-        <v>102.4765229</v>
+        <v>102.305874</v>
       </c>
       <c r="F13" t="n">
-        <v>100.6226976</v>
+        <v>100.325981999999</v>
       </c>
       <c r="G13" t="n">
-        <v>101.8512331</v>
+        <v>101.676092199999</v>
       </c>
       <c r="H13" t="n">
-        <v>100.229983</v>
+        <v>100.217701099999</v>
       </c>
       <c r="I13" t="n">
-        <v>101.3200622</v>
+        <v>101.3401264</v>
       </c>
       <c r="J13" t="n">
-        <v>104.0049204</v>
+        <v>104.470898</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.5191735</v>
+        <v>101.3424926</v>
       </c>
       <c r="C14" t="n">
-        <v>104.4495375</v>
+        <v>102.4685121</v>
       </c>
       <c r="D14" t="n">
-        <v>102.242357</v>
+        <v>101.1831509</v>
       </c>
       <c r="E14" t="n">
-        <v>103.1015287</v>
+        <v>104.1226474</v>
       </c>
       <c r="F14" t="n">
-        <v>102.0538628</v>
+        <v>102.629536</v>
       </c>
       <c r="G14" t="n">
-        <v>102.4682059</v>
+        <v>102.3556895</v>
       </c>
       <c r="H14" t="n">
-        <v>100.4998107</v>
+        <v>101.1302934</v>
       </c>
       <c r="I14" t="n">
-        <v>101.3045856</v>
+        <v>101.2993044</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2937259</v>
+        <v>98.83178133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.28382039</v>
+        <v>101.3678096</v>
       </c>
       <c r="C15" t="n">
-        <v>103.50630283</v>
+        <v>102.4171479</v>
       </c>
       <c r="D15" t="n">
-        <v>101.40148758</v>
+        <v>101.215143</v>
       </c>
       <c r="E15" t="n">
-        <v>103.18250266</v>
+        <v>104.1789203</v>
       </c>
       <c r="F15" t="n">
-        <v>102.1316022</v>
+        <v>102.6857936</v>
       </c>
       <c r="G15" t="n">
-        <v>102.35030522</v>
+        <v>102.3334981</v>
       </c>
       <c r="H15" t="n">
-        <v>100.57283903</v>
+        <v>101.184441</v>
       </c>
       <c r="I15" t="n">
-        <v>101.17055627</v>
+        <v>101.3124376</v>
       </c>
       <c r="J15" t="n">
-        <v>99.82926525000001</v>
+        <v>98.86498786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.2500905</v>
+        <v>101.3653666</v>
       </c>
       <c r="C16" t="n">
-        <v>103.223047</v>
+        <v>102.3660272</v>
       </c>
       <c r="D16" t="n">
-        <v>101.1463527</v>
+        <v>101.2539529</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3137763</v>
+        <v>104.2203773</v>
       </c>
       <c r="F16" t="n">
-        <v>102.1617842</v>
+        <v>102.7395974</v>
       </c>
       <c r="G16" t="n">
-        <v>102.362759</v>
+        <v>102.3171616</v>
       </c>
       <c r="H16" t="n">
-        <v>100.6352985</v>
+        <v>101.2356206</v>
       </c>
       <c r="I16" t="n">
-        <v>101.1941017</v>
+        <v>101.3161336</v>
       </c>
       <c r="J16" t="n">
-        <v>99.00142473</v>
+        <v>98.93712539000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.1714653</v>
+        <v>102.5191735</v>
       </c>
       <c r="C17" t="n">
-        <v>103.1555743</v>
+        <v>104.4495375</v>
       </c>
       <c r="D17" t="n">
-        <v>101.0541832</v>
+        <v>102.242357</v>
       </c>
       <c r="E17" t="n">
-        <v>103.4515627</v>
+        <v>103.1015287</v>
       </c>
       <c r="F17" t="n">
-        <v>102.2048967</v>
+        <v>102.0538628</v>
       </c>
       <c r="G17" t="n">
-        <v>102.3823035</v>
+        <v>102.4682059</v>
       </c>
       <c r="H17" t="n">
-        <v>100.7174714</v>
+        <v>100.4998107</v>
       </c>
       <c r="I17" t="n">
-        <v>101.2157459</v>
+        <v>101.3045856</v>
       </c>
       <c r="J17" t="n">
-        <v>98.65631272</v>
+        <v>102.2937259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.9971679</v>
+        <v>102.28382039</v>
       </c>
       <c r="C18" t="n">
-        <v>103.091563</v>
+        <v>103.50630283</v>
       </c>
       <c r="D18" t="n">
-        <v>101.0579513</v>
+        <v>101.40148758</v>
       </c>
       <c r="E18" t="n">
-        <v>103.5920325</v>
+        <v>103.18250266</v>
       </c>
       <c r="F18" t="n">
-        <v>102.2638456</v>
+        <v>102.1316022</v>
       </c>
       <c r="G18" t="n">
-        <v>102.3966962</v>
+        <v>102.35030522</v>
       </c>
       <c r="H18" t="n">
-        <v>100.7923197</v>
+        <v>100.57283903</v>
       </c>
       <c r="I18" t="n">
-        <v>101.2336556</v>
+        <v>101.17055627</v>
       </c>
       <c r="J18" t="n">
-        <v>98.62828908</v>
+        <v>99.82926525000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.7162387</v>
+        <v>102.2500905</v>
       </c>
       <c r="C19" t="n">
-        <v>103.0318468</v>
+        <v>103.223047</v>
       </c>
       <c r="D19" t="n">
-        <v>101.0441904</v>
+        <v>101.1463527</v>
       </c>
       <c r="E19" t="n">
-        <v>103.6858231</v>
+        <v>103.3137763</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3214415</v>
+        <v>102.1617842</v>
       </c>
       <c r="G19" t="n">
-        <v>102.4087829</v>
+        <v>102.362759</v>
       </c>
       <c r="H19" t="n">
-        <v>100.8601403</v>
+        <v>100.6352985</v>
       </c>
       <c r="I19" t="n">
-        <v>101.2356055</v>
+        <v>101.1941017</v>
       </c>
       <c r="J19" t="n">
-        <v>98.60321207</v>
+        <v>99.00142473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.4670822</v>
+        <v>102.1714653</v>
       </c>
       <c r="C20" t="n">
-        <v>102.8318608</v>
+        <v>103.1555743</v>
       </c>
       <c r="D20" t="n">
-        <v>101.0447291</v>
+        <v>101.0541832</v>
       </c>
       <c r="E20" t="n">
-        <v>103.7951546</v>
+        <v>103.4515627</v>
       </c>
       <c r="F20" t="n">
-        <v>102.3799523</v>
+        <v>102.2048967</v>
       </c>
       <c r="G20" t="n">
-        <v>102.4145956</v>
+        <v>102.3823035</v>
       </c>
       <c r="H20" t="n">
-        <v>100.9259324</v>
+        <v>100.7174714</v>
       </c>
       <c r="I20" t="n">
-        <v>101.2370574</v>
+        <v>101.2157459</v>
       </c>
       <c r="J20" t="n">
-        <v>98.62087921</v>
+        <v>98.65631272</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.4062558</v>
+        <v>101.9971679</v>
       </c>
       <c r="C21" t="n">
-        <v>102.6568314</v>
+        <v>103.091563</v>
       </c>
       <c r="D21" t="n">
-        <v>101.1001131</v>
+        <v>101.0579513</v>
       </c>
       <c r="E21" t="n">
-        <v>103.8848799</v>
+        <v>103.5920325</v>
       </c>
       <c r="F21" t="n">
-        <v>102.4653988</v>
+        <v>102.2638456</v>
       </c>
       <c r="G21" t="n">
-        <v>102.4170719</v>
+        <v>102.3966962</v>
       </c>
       <c r="H21" t="n">
-        <v>100.9972984</v>
+        <v>100.7923197</v>
       </c>
       <c r="I21" t="n">
-        <v>101.2478344</v>
+        <v>101.2336556</v>
       </c>
       <c r="J21" t="n">
-        <v>98.72818042</v>
+        <v>98.62828908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.3499751</v>
+        <v>101.7162387</v>
       </c>
       <c r="C22" t="n">
-        <v>102.5411402</v>
+        <v>103.0318468</v>
       </c>
       <c r="D22" t="n">
-        <v>101.1300743</v>
+        <v>101.0441904</v>
       </c>
       <c r="E22" t="n">
-        <v>104.0303848</v>
+        <v>103.6858231</v>
       </c>
       <c r="F22" t="n">
-        <v>102.5509491</v>
+        <v>102.3214415</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3819487</v>
+        <v>102.4087829</v>
       </c>
       <c r="H22" t="n">
-        <v>101.0630215</v>
+        <v>100.8601403</v>
       </c>
       <c r="I22" t="n">
-        <v>101.2732016</v>
+        <v>101.2356055</v>
       </c>
       <c r="J22" t="n">
-        <v>98.74747278</v>
+        <v>98.60321207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>101.3424926</v>
+        <v>101.4670822</v>
       </c>
       <c r="C23" t="n">
-        <v>102.4685121</v>
+        <v>102.8318608</v>
       </c>
       <c r="D23" t="n">
-        <v>101.1831509</v>
+        <v>101.0447291</v>
       </c>
       <c r="E23" t="n">
-        <v>104.1226474</v>
+        <v>103.7951546</v>
       </c>
       <c r="F23" t="n">
-        <v>102.629536</v>
+        <v>102.3799523</v>
       </c>
       <c r="G23" t="n">
-        <v>102.3556895</v>
+        <v>102.4145956</v>
       </c>
       <c r="H23" t="n">
-        <v>101.1302934</v>
+        <v>100.9259324</v>
       </c>
       <c r="I23" t="n">
-        <v>101.2993044</v>
+        <v>101.2370574</v>
       </c>
       <c r="J23" t="n">
-        <v>98.83178133</v>
+        <v>98.62087921</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.3678096</v>
+        <v>101.4062558</v>
       </c>
       <c r="C24" t="n">
-        <v>102.4171479</v>
+        <v>102.6568314</v>
       </c>
       <c r="D24" t="n">
-        <v>101.215143</v>
+        <v>101.1001131</v>
       </c>
       <c r="E24" t="n">
-        <v>104.1789203</v>
+        <v>103.8848799</v>
       </c>
       <c r="F24" t="n">
-        <v>102.6857936</v>
+        <v>102.4653988</v>
       </c>
       <c r="G24" t="n">
-        <v>102.3334981</v>
+        <v>102.4170719</v>
       </c>
       <c r="H24" t="n">
-        <v>101.184441</v>
+        <v>100.9972984</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3124376</v>
+        <v>101.2478344</v>
       </c>
       <c r="J24" t="n">
-        <v>98.86498786</v>
+        <v>98.72818042</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.3653666</v>
+        <v>101.3499751</v>
       </c>
       <c r="C25" t="n">
-        <v>102.3660272</v>
+        <v>102.5411402</v>
       </c>
       <c r="D25" t="n">
-        <v>101.2539529</v>
+        <v>101.1300743</v>
       </c>
       <c r="E25" t="n">
-        <v>104.2203773</v>
+        <v>104.0303848</v>
       </c>
       <c r="F25" t="n">
-        <v>102.7395974</v>
+        <v>102.5509491</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3171616</v>
+        <v>102.3819487</v>
       </c>
       <c r="H25" t="n">
-        <v>101.2356206</v>
+        <v>101.0630215</v>
       </c>
       <c r="I25" t="n">
-        <v>101.3161336</v>
+        <v>101.2732016</v>
       </c>
       <c r="J25" t="n">
-        <v>98.93712539000001</v>
+        <v>98.74747278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.4203468</v>
+        <v>101.98944776</v>
       </c>
       <c r="C26" t="n">
-        <v>101.0778341</v>
+        <v>101.22033112</v>
       </c>
       <c r="D26" t="n">
-        <v>101.4543307</v>
+        <v>102.07322138</v>
       </c>
       <c r="E26" t="n">
-        <v>104.8281211</v>
+        <v>103.87508522</v>
       </c>
       <c r="F26" t="n">
-        <v>103.2217805</v>
+        <v>103.28274073</v>
       </c>
       <c r="G26" t="n">
-        <v>101.8856215</v>
+        <v>102.18365739</v>
       </c>
       <c r="H26" t="n">
-        <v>101.853493</v>
+        <v>101.62124567</v>
       </c>
       <c r="I26" t="n">
-        <v>101.5692082</v>
+        <v>101.51958476</v>
       </c>
       <c r="J26" t="n">
-        <v>99.50827529999999</v>
+        <v>101.00768253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.9184835</v>
+        <v>101.97553276</v>
       </c>
       <c r="C27" t="n">
-        <v>101.6671185</v>
+        <v>101.21968423</v>
       </c>
       <c r="D27" t="n">
-        <v>102.0864865</v>
+        <v>102.08665209</v>
       </c>
       <c r="E27" t="n">
-        <v>104.7778034</v>
+        <v>103.75508653</v>
       </c>
       <c r="F27" t="n">
-        <v>103.1733588</v>
+        <v>103.28322974</v>
       </c>
       <c r="G27" t="n">
-        <v>102.1880834</v>
+        <v>102.18681911</v>
       </c>
       <c r="H27" t="n">
-        <v>101.8577642</v>
+        <v>101.58806951</v>
       </c>
       <c r="I27" t="n">
-        <v>101.6348399</v>
+        <v>101.52825066</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1811866</v>
+        <v>101.09297556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.7673624</v>
+        <v>101.78780467</v>
       </c>
       <c r="C28" t="n">
-        <v>101.5906556</v>
+        <v>101.24118079</v>
       </c>
       <c r="D28" t="n">
-        <v>102.0315382</v>
+        <v>102.06738506</v>
       </c>
       <c r="E28" t="n">
-        <v>104.6515764</v>
+        <v>103.65353538</v>
       </c>
       <c r="F28" t="n">
-        <v>103.0995171</v>
+        <v>103.26377599</v>
       </c>
       <c r="G28" t="n">
-        <v>102.182169</v>
+        <v>102.18130533</v>
       </c>
       <c r="H28" t="n">
-        <v>101.8392802</v>
+        <v>101.55456623</v>
       </c>
       <c r="I28" t="n">
-        <v>101.610438</v>
+        <v>101.54102445</v>
       </c>
       <c r="J28" t="n">
-        <v>101.1581181</v>
+        <v>101.14803119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.8668304</v>
+        <v>100.4203468</v>
       </c>
       <c r="C29" t="n">
-        <v>101.4890926</v>
+        <v>101.0778341</v>
       </c>
       <c r="D29" t="n">
-        <v>101.9</v>
+        <v>101.4543307</v>
       </c>
       <c r="E29" t="n">
-        <v>104.515557</v>
+        <v>104.8281211</v>
       </c>
       <c r="F29" t="n">
-        <v>103.1218052</v>
+        <v>103.2217805</v>
       </c>
       <c r="G29" t="n">
-        <v>102.1718763</v>
+        <v>101.8856215</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8169009</v>
+        <v>101.853493</v>
       </c>
       <c r="I29" t="n">
-        <v>101.5643646</v>
+        <v>101.5692082</v>
       </c>
       <c r="J29" t="n">
-        <v>100.8948302</v>
+        <v>99.50827529999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.0770108</v>
+        <v>100.9184835</v>
       </c>
       <c r="C30" t="n">
-        <v>101.4136656</v>
+        <v>101.6671185</v>
       </c>
       <c r="D30" t="n">
-        <v>101.9</v>
+        <v>102.0864865</v>
       </c>
       <c r="E30" t="n">
-        <v>104.426828</v>
+        <v>104.7778034</v>
       </c>
       <c r="F30" t="n">
-        <v>103.1439828</v>
+        <v>103.1733588</v>
       </c>
       <c r="G30" t="n">
-        <v>102.1513915</v>
+        <v>102.1880834</v>
       </c>
       <c r="H30" t="n">
-        <v>101.7917057</v>
+        <v>101.8577642</v>
       </c>
       <c r="I30" t="n">
-        <v>101.536294</v>
+        <v>101.6348399</v>
       </c>
       <c r="J30" t="n">
-        <v>100.6867505</v>
+        <v>101.1811866</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.32038515</v>
+        <v>100.7673624</v>
       </c>
       <c r="C31" t="n">
-        <v>101.35311913</v>
+        <v>101.5906556</v>
       </c>
       <c r="D31" t="n">
-        <v>101.89268483</v>
+        <v>102.0315382</v>
       </c>
       <c r="E31" t="n">
-        <v>104.3476312</v>
+        <v>104.6515764</v>
       </c>
       <c r="F31" t="n">
-        <v>103.16198127</v>
+        <v>103.0995171</v>
       </c>
       <c r="G31" t="n">
-        <v>102.14085921</v>
+        <v>102.182169</v>
       </c>
       <c r="H31" t="n">
-        <v>101.76688663</v>
+        <v>101.8392802</v>
       </c>
       <c r="I31" t="n">
-        <v>101.53785615</v>
+        <v>101.610438</v>
       </c>
       <c r="J31" t="n">
-        <v>100.60535801</v>
+        <v>101.1581181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.5718759</v>
+        <v>100.8668304</v>
       </c>
       <c r="C32" t="n">
-        <v>101.31559789</v>
+        <v>101.4890926</v>
       </c>
       <c r="D32" t="n">
-        <v>101.90828329</v>
+        <v>101.9</v>
       </c>
       <c r="E32" t="n">
-        <v>104.24938385</v>
+        <v>104.515557</v>
       </c>
       <c r="F32" t="n">
-        <v>103.17854648</v>
+        <v>103.1218052</v>
       </c>
       <c r="G32" t="n">
-        <v>102.14571907</v>
+        <v>102.1718763</v>
       </c>
       <c r="H32" t="n">
-        <v>101.73305198</v>
+        <v>101.8169009</v>
       </c>
       <c r="I32" t="n">
-        <v>101.53478506</v>
+        <v>101.5643646</v>
       </c>
       <c r="J32" t="n">
-        <v>100.58170754</v>
+        <v>100.8948302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.71392968</v>
+        <v>101.0770108</v>
       </c>
       <c r="C33" t="n">
-        <v>101.2919406</v>
+        <v>101.4136656</v>
       </c>
       <c r="D33" t="n">
-        <v>101.95327551</v>
+        <v>101.9</v>
       </c>
       <c r="E33" t="n">
-        <v>104.16508128</v>
+        <v>104.426828</v>
       </c>
       <c r="F33" t="n">
-        <v>103.22323571</v>
+        <v>103.1439828</v>
       </c>
       <c r="G33" t="n">
-        <v>102.16702129</v>
+        <v>102.1513915</v>
       </c>
       <c r="H33" t="n">
-        <v>101.69311488</v>
+        <v>101.7917057</v>
       </c>
       <c r="I33" t="n">
-        <v>101.53236358</v>
+        <v>101.536294</v>
       </c>
       <c r="J33" t="n">
-        <v>100.66736531</v>
+        <v>100.6867505</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.84850585</v>
+        <v>101.32038515</v>
       </c>
       <c r="C34" t="n">
-        <v>101.23773304</v>
+        <v>101.35311913</v>
       </c>
       <c r="D34" t="n">
-        <v>102.01919989</v>
+        <v>101.89268483</v>
       </c>
       <c r="E34" t="n">
-        <v>104.01459972</v>
+        <v>104.3476312</v>
       </c>
       <c r="F34" t="n">
-        <v>103.25651413</v>
+        <v>103.16198127</v>
       </c>
       <c r="G34" t="n">
-        <v>102.17274277</v>
+        <v>102.14085921</v>
       </c>
       <c r="H34" t="n">
-        <v>101.65526718</v>
+        <v>101.76688663</v>
       </c>
       <c r="I34" t="n">
-        <v>101.51952098</v>
+        <v>101.53785615</v>
       </c>
       <c r="J34" t="n">
-        <v>100.86121287</v>
+        <v>100.60535801</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.98944776</v>
+        <v>101.5718759</v>
       </c>
       <c r="C35" t="n">
-        <v>101.22033112</v>
+        <v>101.31559789</v>
       </c>
       <c r="D35" t="n">
-        <v>102.07322138</v>
+        <v>101.90828329</v>
       </c>
       <c r="E35" t="n">
-        <v>103.87508522</v>
+        <v>104.24938385</v>
       </c>
       <c r="F35" t="n">
-        <v>103.28274073</v>
+        <v>103.17854648</v>
       </c>
       <c r="G35" t="n">
-        <v>102.18365739</v>
+        <v>102.14571907</v>
       </c>
       <c r="H35" t="n">
-        <v>101.62124567</v>
+        <v>101.73305198</v>
       </c>
       <c r="I35" t="n">
-        <v>101.51958476</v>
+        <v>101.53478506</v>
       </c>
       <c r="J35" t="n">
-        <v>101.00768253</v>
+        <v>100.58170754</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.97553276</v>
+        <v>101.71392968</v>
       </c>
       <c r="C36" t="n">
-        <v>101.21968423</v>
+        <v>101.2919406</v>
       </c>
       <c r="D36" t="n">
-        <v>102.08665209</v>
+        <v>101.95327551</v>
       </c>
       <c r="E36" t="n">
-        <v>103.75508653</v>
+        <v>104.16508128</v>
       </c>
       <c r="F36" t="n">
-        <v>103.28322974</v>
+        <v>103.22323571</v>
       </c>
       <c r="G36" t="n">
-        <v>102.18681911</v>
+        <v>102.16702129</v>
       </c>
       <c r="H36" t="n">
-        <v>101.58806951</v>
+        <v>101.69311488</v>
       </c>
       <c r="I36" t="n">
-        <v>101.52825066</v>
+        <v>101.53236358</v>
       </c>
       <c r="J36" t="n">
-        <v>101.09297556</v>
+        <v>100.66736531</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.78780467</v>
+        <v>101.84850585</v>
       </c>
       <c r="C37" t="n">
-        <v>101.24118079</v>
+        <v>101.23773304</v>
       </c>
       <c r="D37" t="n">
-        <v>102.06738506</v>
+        <v>102.01919989</v>
       </c>
       <c r="E37" t="n">
-        <v>103.65353538</v>
+        <v>104.01459972</v>
       </c>
       <c r="F37" t="n">
-        <v>103.26377599</v>
+        <v>103.25651413</v>
       </c>
       <c r="G37" t="n">
-        <v>102.18130533</v>
+        <v>102.17274277</v>
       </c>
       <c r="H37" t="n">
-        <v>101.55456623</v>
+        <v>101.65526718</v>
       </c>
       <c r="I37" t="n">
-        <v>101.54102445</v>
+        <v>101.51952098</v>
       </c>
       <c r="J37" t="n">
-        <v>101.14803119</v>
+        <v>100.86121287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>98.91746092</v>
+        <v>98.59509889</v>
       </c>
       <c r="C38" t="n">
-        <v>102.39177301</v>
+        <v>102.86690505</v>
       </c>
       <c r="D38" t="n">
-        <v>101.66844525</v>
+        <v>102.78159626</v>
       </c>
       <c r="E38" t="n">
-        <v>102.64138785</v>
+        <v>102.22083716</v>
       </c>
       <c r="F38" t="n">
-        <v>102.82483166</v>
+        <v>101.7614967</v>
       </c>
       <c r="G38" t="n">
-        <v>102.36655427</v>
+        <v>102.00798862</v>
       </c>
       <c r="H38" t="n">
-        <v>101.158018</v>
+        <v>100.83045332</v>
       </c>
       <c r="I38" t="n">
-        <v>101.52245679</v>
+        <v>101.42148985</v>
       </c>
       <c r="J38" t="n">
-        <v>101.45898339</v>
+        <v>106.19878339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.02483924000001</v>
+        <v>98.49409985</v>
       </c>
       <c r="C39" t="n">
-        <v>102.0874173</v>
+        <v>102.99734286</v>
       </c>
       <c r="D39" t="n">
-        <v>101.52708421</v>
+        <v>103.02790759</v>
       </c>
       <c r="E39" t="n">
-        <v>102.67988806</v>
+        <v>102.16757254</v>
       </c>
       <c r="F39" t="n">
-        <v>102.80549458</v>
+        <v>101.61920206</v>
       </c>
       <c r="G39" t="n">
-        <v>102.33389955</v>
+        <v>101.95684175</v>
       </c>
       <c r="H39" t="n">
-        <v>101.16237537</v>
+        <v>100.80019741</v>
       </c>
       <c r="I39" t="n">
-        <v>101.64012686</v>
+        <v>101.32537881</v>
       </c>
       <c r="J39" t="n">
-        <v>100.98618232</v>
+        <v>107.1837719</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.45028487</v>
+        <v>98.5727476</v>
       </c>
       <c r="C40" t="n">
-        <v>101.97228528</v>
+        <v>103.08986846</v>
       </c>
       <c r="D40" t="n">
-        <v>101.76767359</v>
+        <v>103.22082148</v>
       </c>
       <c r="E40" t="n">
-        <v>102.66858026</v>
+        <v>102.13149945</v>
       </c>
       <c r="F40" t="n">
-        <v>102.75045118</v>
+        <v>101.50846851</v>
       </c>
       <c r="G40" t="n">
-        <v>102.26614758</v>
+        <v>101.9192487</v>
       </c>
       <c r="H40" t="n">
-        <v>101.10909636</v>
+        <v>100.76588822</v>
       </c>
       <c r="I40" t="n">
-        <v>101.65846994</v>
+        <v>101.22962126</v>
       </c>
       <c r="J40" t="n">
-        <v>101.66703078</v>
+        <v>107.89559568</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.53199221</v>
+        <v>98.91746092</v>
       </c>
       <c r="C41" t="n">
-        <v>101.93721423</v>
+        <v>102.39177301</v>
       </c>
       <c r="D41" t="n">
-        <v>101.98581132</v>
+        <v>101.66844525</v>
       </c>
       <c r="E41" t="n">
-        <v>102.63364569</v>
+        <v>102.64138785</v>
       </c>
       <c r="F41" t="n">
-        <v>102.63715145</v>
+        <v>102.82483166</v>
       </c>
       <c r="G41" t="n">
-        <v>102.23204534</v>
+        <v>102.36655427</v>
       </c>
       <c r="H41" t="n">
-        <v>101.0521541</v>
+        <v>101.158018</v>
       </c>
       <c r="I41" t="n">
-        <v>101.64744598</v>
+        <v>101.52245679</v>
       </c>
       <c r="J41" t="n">
-        <v>102.44696611</v>
+        <v>101.45898339</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.50828779</v>
+        <v>99.02483924000001</v>
       </c>
       <c r="C42" t="n">
-        <v>101.91643576</v>
+        <v>102.0874173</v>
       </c>
       <c r="D42" t="n">
-        <v>102.1546541</v>
+        <v>101.52708421</v>
       </c>
       <c r="E42" t="n">
-        <v>102.55601741</v>
+        <v>102.67988806</v>
       </c>
       <c r="F42" t="n">
-        <v>102.53433998</v>
+        <v>102.80549458</v>
       </c>
       <c r="G42" t="n">
-        <v>102.21270795</v>
+        <v>102.33389955</v>
       </c>
       <c r="H42" t="n">
-        <v>101.00231395</v>
+        <v>101.16237537</v>
       </c>
       <c r="I42" t="n">
-        <v>101.61563401</v>
+        <v>101.64012686</v>
       </c>
       <c r="J42" t="n">
-        <v>103.11954892</v>
+        <v>100.98618232</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.33209762</v>
+        <v>99.45028487</v>
       </c>
       <c r="C43" t="n">
-        <v>101.97774775</v>
+        <v>101.97228528</v>
       </c>
       <c r="D43" t="n">
-        <v>102.24968547</v>
+        <v>101.76767359</v>
       </c>
       <c r="E43" t="n">
-        <v>102.49088397</v>
+        <v>102.66858026</v>
       </c>
       <c r="F43" t="n">
-        <v>102.39333909</v>
+        <v>102.75045118</v>
       </c>
       <c r="G43" t="n">
-        <v>102.17871293</v>
+        <v>102.26614758</v>
       </c>
       <c r="H43" t="n">
-        <v>100.94729249</v>
+        <v>101.10909636</v>
       </c>
       <c r="I43" t="n">
-        <v>101.59777857</v>
+        <v>101.65846994</v>
       </c>
       <c r="J43" t="n">
-        <v>103.63447375</v>
+        <v>101.66703078</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.16643553</v>
+        <v>99.53199221</v>
       </c>
       <c r="C44" t="n">
-        <v>102.11977797</v>
+        <v>101.93721423</v>
       </c>
       <c r="D44" t="n">
-        <v>102.34461791</v>
+        <v>101.98581132</v>
       </c>
       <c r="E44" t="n">
-        <v>102.41683526</v>
+        <v>102.63364569</v>
       </c>
       <c r="F44" t="n">
-        <v>102.2672219</v>
+        <v>102.63715145</v>
       </c>
       <c r="G44" t="n">
-        <v>102.15089967</v>
+        <v>102.23204534</v>
       </c>
       <c r="H44" t="n">
-        <v>100.9094185</v>
+        <v>101.0521541</v>
       </c>
       <c r="I44" t="n">
-        <v>101.59029503</v>
+        <v>101.64744598</v>
       </c>
       <c r="J44" t="n">
-        <v>104.12460163</v>
+        <v>102.44696611</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.00688968999999</v>
+        <v>99.50828779</v>
       </c>
       <c r="C45" t="n">
-        <v>102.35908109</v>
+        <v>101.91643576</v>
       </c>
       <c r="D45" t="n">
-        <v>102.44283075</v>
+        <v>102.1546541</v>
       </c>
       <c r="E45" t="n">
-        <v>102.34314607</v>
+        <v>102.55601741</v>
       </c>
       <c r="F45" t="n">
-        <v>102.09846888</v>
+        <v>102.53433998</v>
       </c>
       <c r="G45" t="n">
-        <v>102.12335446</v>
+        <v>102.21270795</v>
       </c>
       <c r="H45" t="n">
-        <v>100.88612533</v>
+        <v>101.00231395</v>
       </c>
       <c r="I45" t="n">
-        <v>101.54470497</v>
+        <v>101.61563401</v>
       </c>
       <c r="J45" t="n">
-        <v>104.64522344</v>
+        <v>103.11954892</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.81474806</v>
+        <v>99.33209762</v>
       </c>
       <c r="C46" t="n">
-        <v>102.64326558</v>
+        <v>101.97774775</v>
       </c>
       <c r="D46" t="n">
-        <v>102.57431986</v>
+        <v>102.24968547</v>
       </c>
       <c r="E46" t="n">
-        <v>102.27908745</v>
+        <v>102.49088397</v>
       </c>
       <c r="F46" t="n">
-        <v>101.93148192</v>
+        <v>102.39333909</v>
       </c>
       <c r="G46" t="n">
-        <v>102.05901442</v>
+        <v>102.17871293</v>
       </c>
       <c r="H46" t="n">
-        <v>100.86141766</v>
+        <v>100.94729249</v>
       </c>
       <c r="I46" t="n">
-        <v>101.50245251</v>
+        <v>101.59777857</v>
       </c>
       <c r="J46" t="n">
-        <v>105.28783421</v>
+        <v>103.63447375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.59509889</v>
+        <v>99.16643553</v>
       </c>
       <c r="C47" t="n">
-        <v>102.86690505</v>
+        <v>102.11977797</v>
       </c>
       <c r="D47" t="n">
-        <v>102.78159626</v>
+        <v>102.34461791</v>
       </c>
       <c r="E47" t="n">
-        <v>102.22083716</v>
+        <v>102.41683526</v>
       </c>
       <c r="F47" t="n">
-        <v>101.7614967</v>
+        <v>102.2672219</v>
       </c>
       <c r="G47" t="n">
-        <v>102.00798862</v>
+        <v>102.15089967</v>
       </c>
       <c r="H47" t="n">
-        <v>100.83045332</v>
+        <v>100.9094185</v>
       </c>
       <c r="I47" t="n">
-        <v>101.42148985</v>
+        <v>101.59029503</v>
       </c>
       <c r="J47" t="n">
-        <v>106.19878339</v>
+        <v>104.12460163</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98.49409985</v>
+        <v>99.00688968999999</v>
       </c>
       <c r="C48" t="n">
-        <v>102.99734286</v>
+        <v>102.35908109</v>
       </c>
       <c r="D48" t="n">
-        <v>103.02790759</v>
+        <v>102.44283075</v>
       </c>
       <c r="E48" t="n">
-        <v>102.16757254</v>
+        <v>102.34314607</v>
       </c>
       <c r="F48" t="n">
-        <v>101.61920206</v>
+        <v>102.09846888</v>
       </c>
       <c r="G48" t="n">
-        <v>101.95684175</v>
+        <v>102.12335446</v>
       </c>
       <c r="H48" t="n">
-        <v>100.80019741</v>
+        <v>100.88612533</v>
       </c>
       <c r="I48" t="n">
-        <v>101.32537881</v>
+        <v>101.54470497</v>
       </c>
       <c r="J48" t="n">
-        <v>107.1837719</v>
+        <v>104.64522344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>98.5727476</v>
+        <v>98.81474806</v>
       </c>
       <c r="C49" t="n">
-        <v>103.08986846</v>
+        <v>102.64326558</v>
       </c>
       <c r="D49" t="n">
-        <v>103.22082148</v>
+        <v>102.57431986</v>
       </c>
       <c r="E49" t="n">
-        <v>102.13149945</v>
+        <v>102.27908745</v>
       </c>
       <c r="F49" t="n">
-        <v>101.50846851</v>
+        <v>101.93148192</v>
       </c>
       <c r="G49" t="n">
-        <v>101.9192487</v>
+        <v>102.05901442</v>
       </c>
       <c r="H49" t="n">
-        <v>100.76588822</v>
+        <v>100.86141766</v>
       </c>
       <c r="I49" t="n">
-        <v>101.22962126</v>
+        <v>101.50245251</v>
       </c>
       <c r="J49" t="n">
-        <v>107.89559568</v>
+        <v>105.28783421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.94691699</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>104.30817739</v>
+        <v>104.5</v>
       </c>
       <c r="D50" t="n">
-        <v>106.28149365</v>
+        <v>103.7</v>
       </c>
       <c r="E50" t="n">
-        <v>101.87905507</v>
+        <v>102.1</v>
       </c>
       <c r="F50" t="n">
-        <v>100.32676095</v>
+        <v>99.5</v>
       </c>
       <c r="G50" t="n">
-        <v>101.5013011</v>
+        <v>101.1</v>
       </c>
       <c r="H50" t="n">
-        <v>100.25342542</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>100.0977965</v>
+        <v>99.7</v>
       </c>
       <c r="J50" t="n">
-        <v>118.04766818</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.78041783</v>
+        <v>96.8</v>
       </c>
       <c r="C51" t="n">
-        <v>104.03585612</v>
+        <v>104.3</v>
       </c>
       <c r="D51" t="n">
-        <v>106.29072207</v>
+        <v>103.3</v>
       </c>
       <c r="E51" t="n">
-        <v>101.8918174</v>
+        <v>102</v>
       </c>
       <c r="F51" t="n">
-        <v>100.20680564</v>
+        <v>99.5</v>
       </c>
       <c r="G51" t="n">
-        <v>101.23437869</v>
+        <v>101.1</v>
       </c>
       <c r="H51" t="n">
-        <v>100.147124</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>100.09234361</v>
+        <v>99.7</v>
       </c>
       <c r="J51" t="n">
-        <v>118.61820052</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>98.78205308</v>
+        <v>96.8</v>
       </c>
       <c r="C52" t="n">
-        <v>104.27735475</v>
+        <v>104.1</v>
       </c>
       <c r="D52" t="n">
-        <v>105.94460244</v>
+        <v>103</v>
       </c>
       <c r="E52" t="n">
-        <v>101.9071049</v>
+        <v>102</v>
       </c>
       <c r="F52" t="n">
-        <v>100.03898368</v>
+        <v>99.5</v>
       </c>
       <c r="G52" t="n">
-        <v>101.28059226</v>
+        <v>101.1</v>
       </c>
       <c r="H52" t="n">
-        <v>100.12622102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>99.97148215</v>
+        <v>99.7</v>
       </c>
       <c r="J52" t="n">
-        <v>117.96546008</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>97.98220428</v>
+        <v>100.94691699</v>
       </c>
       <c r="C53" t="n">
-        <v>104.3819968</v>
+        <v>104.30817739</v>
       </c>
       <c r="D53" t="n">
-        <v>105.46818155</v>
+        <v>106.28149365</v>
       </c>
       <c r="E53" t="n">
-        <v>101.96802595</v>
+        <v>101.87905507</v>
       </c>
       <c r="F53" t="n">
-        <v>99.87266936</v>
+        <v>100.32676095</v>
       </c>
       <c r="G53" t="n">
-        <v>101.26905464</v>
+        <v>101.5013011</v>
       </c>
       <c r="H53" t="n">
-        <v>100.08208327</v>
+        <v>100.25342542</v>
       </c>
       <c r="I53" t="n">
-        <v>99.84463556999999</v>
+        <v>100.0977965</v>
       </c>
       <c r="J53" t="n">
-        <v>116.84614549</v>
+        <v>118.04766818</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>97.43335492999999</v>
+        <v>99.78041783</v>
       </c>
       <c r="C54" t="n">
-        <v>104.53060948</v>
+        <v>104.03585612</v>
       </c>
       <c r="D54" t="n">
-        <v>104.97537094</v>
+        <v>106.29072207</v>
       </c>
       <c r="E54" t="n">
-        <v>102.03392909</v>
+        <v>101.8918174</v>
       </c>
       <c r="F54" t="n">
-        <v>99.73215481</v>
+        <v>100.20680564</v>
       </c>
       <c r="G54" t="n">
-        <v>101.28148023</v>
+        <v>101.23437869</v>
       </c>
       <c r="H54" t="n">
-        <v>100.04728504</v>
+        <v>100.147124</v>
       </c>
       <c r="I54" t="n">
-        <v>99.76752736</v>
+        <v>100.09234361</v>
       </c>
       <c r="J54" t="n">
-        <v>115.545839</v>
+        <v>118.61820052</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.150226</v>
+        <v>98.78205308</v>
       </c>
       <c r="C55" t="n">
-        <v>104.61751197</v>
+        <v>104.27735475</v>
       </c>
       <c r="D55" t="n">
-        <v>104.68222107</v>
+        <v>105.94460244</v>
       </c>
       <c r="E55" t="n">
-        <v>102.06726432</v>
+        <v>101.9071049</v>
       </c>
       <c r="F55" t="n">
-        <v>99.66741042</v>
+        <v>100.03898368</v>
       </c>
       <c r="G55" t="n">
-        <v>101.2876419</v>
+        <v>101.28059226</v>
       </c>
       <c r="H55" t="n">
-        <v>100.01110573</v>
+        <v>100.12622102</v>
       </c>
       <c r="I55" t="n">
-        <v>99.71642727</v>
+        <v>99.97148215</v>
       </c>
       <c r="J55" t="n">
-        <v>114.7473595</v>
+        <v>117.96546008</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>97.00533360999999</v>
+        <v>97.98220428</v>
       </c>
       <c r="C56" t="n">
-        <v>104.64350446</v>
+        <v>104.3819968</v>
       </c>
       <c r="D56" t="n">
-        <v>104.54050815</v>
+        <v>105.46818155</v>
       </c>
       <c r="E56" t="n">
-        <v>102.07284855</v>
+        <v>101.96802595</v>
       </c>
       <c r="F56" t="n">
-        <v>99.61296027</v>
+        <v>99.87266936</v>
       </c>
       <c r="G56" t="n">
-        <v>101.21782647</v>
+        <v>101.26905464</v>
       </c>
       <c r="H56" t="n">
-        <v>99.97095315</v>
+        <v>100.08208327</v>
       </c>
       <c r="I56" t="n">
-        <v>99.68155464</v>
+        <v>99.84463556999999</v>
       </c>
       <c r="J56" t="n">
-        <v>114.40074614</v>
+        <v>116.84614549</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>96.94375881000001</v>
+        <v>97.43335492999999</v>
       </c>
       <c r="C57" t="n">
-        <v>104.74401254</v>
+        <v>104.53060948</v>
       </c>
       <c r="D57" t="n">
-        <v>104.36529322</v>
+        <v>104.97537094</v>
       </c>
       <c r="E57" t="n">
-        <v>102.06736546</v>
+        <v>102.03392909</v>
       </c>
       <c r="F57" t="n">
-        <v>99.57466665</v>
+        <v>99.73215481</v>
       </c>
       <c r="G57" t="n">
-        <v>101.14078758</v>
+        <v>101.28148023</v>
       </c>
       <c r="H57" t="n">
-        <v>99.92553976000001</v>
+        <v>100.04728504</v>
       </c>
       <c r="I57" t="n">
-        <v>99.67791250000001</v>
+        <v>99.76752736</v>
       </c>
       <c r="J57" t="n">
-        <v>113.86941684</v>
+        <v>115.545839</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>96.91193341</v>
+        <v>97.150226</v>
       </c>
       <c r="C58" t="n">
-        <v>104.71173824</v>
+        <v>104.61751197</v>
       </c>
       <c r="D58" t="n">
-        <v>104.1038158</v>
+        <v>104.68222107</v>
       </c>
       <c r="E58" t="n">
-        <v>102.0610026</v>
+        <v>102.06726432</v>
       </c>
       <c r="F58" t="n">
-        <v>99.54127171</v>
+        <v>99.66741042</v>
       </c>
       <c r="G58" t="n">
-        <v>101.12800787</v>
+        <v>101.2876419</v>
       </c>
       <c r="H58" t="n">
-        <v>99.89815695999999</v>
+        <v>100.01110573</v>
       </c>
       <c r="I58" t="n">
-        <v>99.67960806000001</v>
+        <v>99.71642727</v>
       </c>
       <c r="J58" t="n">
-        <v>113.01447231</v>
+        <v>114.7473595</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>96.90000000000001</v>
+        <v>97.00533360999999</v>
       </c>
       <c r="C59" t="n">
-        <v>104.5</v>
+        <v>104.64350446</v>
       </c>
       <c r="D59" t="n">
-        <v>103.7</v>
+        <v>104.54050815</v>
       </c>
       <c r="E59" t="n">
-        <v>102.1</v>
+        <v>102.07284855</v>
       </c>
       <c r="F59" t="n">
-        <v>99.5</v>
+        <v>99.61296027</v>
       </c>
       <c r="G59" t="n">
-        <v>101.1</v>
+        <v>101.21782647</v>
       </c>
       <c r="H59" t="n">
-        <v>99.90000000000001</v>
+        <v>99.97095315</v>
       </c>
       <c r="I59" t="n">
-        <v>99.7</v>
+        <v>99.68155464</v>
       </c>
       <c r="J59" t="n">
-        <v>111.8</v>
+        <v>114.40074614</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>96.8</v>
+        <v>96.94375881000001</v>
       </c>
       <c r="C60" t="n">
-        <v>104.3</v>
+        <v>104.74401254</v>
       </c>
       <c r="D60" t="n">
-        <v>103.3</v>
+        <v>104.36529322</v>
       </c>
       <c r="E60" t="n">
-        <v>102</v>
+        <v>102.06736546</v>
       </c>
       <c r="F60" t="n">
-        <v>99.5</v>
+        <v>99.57466665</v>
       </c>
       <c r="G60" t="n">
-        <v>101.1</v>
+        <v>101.14078758</v>
       </c>
       <c r="H60" t="n">
-        <v>99.90000000000001</v>
+        <v>99.92553976000001</v>
       </c>
       <c r="I60" t="n">
-        <v>99.7</v>
+        <v>99.67791250000001</v>
       </c>
       <c r="J60" t="n">
-        <v>110.4</v>
+        <v>113.86941684</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>96.8</v>
+        <v>96.91193341</v>
       </c>
       <c r="C61" t="n">
-        <v>104.1</v>
+        <v>104.71173824</v>
       </c>
       <c r="D61" t="n">
-        <v>103</v>
+        <v>104.1038158</v>
       </c>
       <c r="E61" t="n">
-        <v>102</v>
+        <v>102.0610026</v>
       </c>
       <c r="F61" t="n">
-        <v>99.5</v>
+        <v>99.54127171</v>
       </c>
       <c r="G61" t="n">
-        <v>101.1</v>
+        <v>101.12800787</v>
       </c>
       <c r="H61" t="n">
-        <v>99.90000000000001</v>
+        <v>99.89815695999999</v>
       </c>
       <c r="I61" t="n">
-        <v>99.7</v>
+        <v>99.67960806000001</v>
       </c>
       <c r="J61" t="n">
-        <v>109.6</v>
+        <v>113.01447231</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>96.09999999999999</v>
+        <v>103.5</v>
       </c>
       <c r="C62" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="D62" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="E62" t="n">
         <v>100.6</v>
       </c>
       <c r="F62" t="n">
-        <v>99.8</v>
+        <v>100.9</v>
       </c>
       <c r="G62" t="n">
-        <v>100.8</v>
+        <v>101.6</v>
       </c>
       <c r="H62" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I62" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I62" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="J62" t="n">
-        <v>101.4</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>97.3</v>
+        <v>103.9</v>
       </c>
       <c r="C63" t="n">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D63" t="n">
-        <v>99.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="E63" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="F63" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="G63" t="n">
-        <v>100.9</v>
+        <v>101.7</v>
       </c>
       <c r="H63" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="I63" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="J63" t="n">
-        <v>100.8</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>99</v>
+        <v>103.9</v>
       </c>
       <c r="C64" t="n">
-        <v>99.3</v>
+        <v>98.8</v>
       </c>
       <c r="D64" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I64" t="n">
         <v>100</v>
       </c>
-      <c r="E64" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="F64" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G64" t="n">
-        <v>101</v>
-      </c>
-      <c r="H64" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I64" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="J64" t="n">
-        <v>100.4</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="D65" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="F65" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="G65" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="H65" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>100.1</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>101.2</v>
+        <v>97.3</v>
       </c>
       <c r="C66" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="F66" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="G66" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="H66" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I66" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="J66" t="n">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>101.9</v>
+        <v>99</v>
       </c>
       <c r="C67" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="D67" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G67" t="n">
+        <v>101</v>
+      </c>
+      <c r="H67" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I67" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J67" t="n">
         <v>100.4</v>
-      </c>
-      <c r="E67" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="F67" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="G67" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="H67" t="n">
-        <v>100</v>
-      </c>
-      <c r="I67" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>99.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>102.5</v>
+        <v>100.3</v>
       </c>
       <c r="C68" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="E68" t="n">
         <v>100.5</v>
       </c>
       <c r="F68" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="G68" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="H68" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J68" t="n">
         <v>100.1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>102.9</v>
+        <v>101.2</v>
       </c>
       <c r="C69" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="D69" t="n">
         <v>100.4</v>
       </c>
       <c r="E69" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="F69" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="G69" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="H69" t="n">
+        <v>100</v>
+      </c>
+      <c r="I69" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J69" t="n">
         <v>100.1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J69" t="n">
-        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>103.2</v>
+        <v>101.9</v>
       </c>
       <c r="C70" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="D70" t="n">
         <v>100.4</v>
       </c>
       <c r="E70" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="F70" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="G70" t="n">
-        <v>101.5</v>
+        <v>101.2</v>
       </c>
       <c r="H70" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="I70" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J70" t="n">
-        <v>98.7</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>103.5</v>
+        <v>102.5</v>
       </c>
       <c r="C71" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D71" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E71" t="n">
         <v>100.5</v>
       </c>
-      <c r="E71" t="n">
-        <v>100.6</v>
-      </c>
       <c r="F71" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="G71" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="H71" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="I71" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J71" t="n">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>103.9</v>
+        <v>102.9</v>
       </c>
       <c r="C72" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="D72" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E72" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F72" t="n">
         <v>100.6</v>
       </c>
-      <c r="E72" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="F72" t="n">
-        <v>101</v>
-      </c>
       <c r="G72" t="n">
-        <v>101.7</v>
+        <v>101.4</v>
       </c>
       <c r="H72" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="I72" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J72" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>103.9</v>
+        <v>103.2</v>
       </c>
       <c r="C73" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D73" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F73" t="n">
         <v>100.7</v>
       </c>
-      <c r="E73" t="n">
+      <c r="G73" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>102</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="G74" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H74" t="n">
+        <v>101</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J74" t="n">
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>102</v>
+      </c>
+      <c r="D75" t="n">
+        <v>102</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="G75" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H75" t="n">
+        <v>101</v>
+      </c>
+      <c r="I75" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J75" t="n">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>105</v>
+      </c>
+      <c r="C76" t="n">
+        <v>102</v>
+      </c>
+      <c r="D76" t="n">
+        <v>102</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H76" t="n">
+        <v>101</v>
+      </c>
+      <c r="I76" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F77" t="n">
+        <v>102</v>
+      </c>
+      <c r="G77" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I77" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>105</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F78" t="n">
+        <v>102</v>
+      </c>
+      <c r="G78" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I78" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="C79" t="n">
         <v>100.7</v>
       </c>
-      <c r="F73" t="n">
+      <c r="D79" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="C80" t="n">
         <v>101.1</v>
       </c>
-      <c r="G73" t="n">
+      <c r="D80" t="n">
+        <v>101</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>102</v>
+      </c>
+      <c r="H80" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="I80" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>102</v>
+      </c>
+      <c r="H81" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="I81" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>102</v>
+      </c>
+      <c r="G82" t="n">
+        <v>102</v>
+      </c>
+      <c r="H82" t="n">
+        <v>101</v>
+      </c>
+      <c r="I82" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="D83" t="n">
         <v>101.7</v>
       </c>
-      <c r="H73" t="n">
+      <c r="E83" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="G83" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="H83" t="n">
+        <v>101</v>
+      </c>
+      <c r="I83" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="G84" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="H84" t="n">
+        <v>101</v>
+      </c>
+      <c r="I84" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="D85" t="n">
+        <v>102</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H85" t="n">
+        <v>101</v>
+      </c>
+      <c r="I85" t="n">
         <v>100.4</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J85" t="n">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="C86" t="n">
+        <v>103</v>
+      </c>
+      <c r="D86" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>101</v>
+      </c>
+      <c r="F86" t="n">
         <v>100</v>
       </c>
-      <c r="J73" t="n">
-        <v>98.8</v>
+      <c r="G86" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="H86" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H87" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G88" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H88" t="n">
+        <v>101</v>
+      </c>
+      <c r="I88" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="D89" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G89" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H89" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I89" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H90" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I90" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G91" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H91" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J91" t="n">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="E92" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G92" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H92" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>101.9</v>
       </c>
     </row>
   </sheetData>
